--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3044427.337582334</v>
+        <v>-3045240.641021664</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2484767.005433345</v>
+        <v>2484767.005433348</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>135.7293992974318</v>
+        <v>109.5407761182466</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H8" t="n">
         <v>135.7293992974318</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>97.59782943789268</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>60.36402868517423</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="U9" t="n">
+      <c r="X9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="V9" t="n">
-        <v>51.85199244433831</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21.94182076836089</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>81.39848696832993</v>
+      </c>
+      <c r="U10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W10" t="n">
         <v>135.7293992974318</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>292.0484899080474</v>
       </c>
       <c r="D11" t="n">
-        <v>283.0297939525754</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>304.7719315224809</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>323.9437476104581</v>
+        <v>53.74838453832683</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>239.5154740569005</v>
       </c>
       <c r="I11" t="n">
-        <v>24.83194609106721</v>
+        <v>70.29792687796078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.58704436097193</v>
+        <v>90.58704436097196</v>
       </c>
       <c r="T11" t="n">
         <v>134.3774348105163</v>
@@ -1427,13 +1427,13 @@
         <v>166.2399956648098</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>247.5435501905448</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>272.8436496685017</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>292.1439079012483</v>
       </c>
       <c r="Y11" t="n">
         <v>303.5405056974471</v>
@@ -1467,7 +1467,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>95.65388382506278</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>81.85387867046326</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.4229929238211</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.88991725200741</v>
       </c>
       <c r="G13" t="n">
-        <v>80.99328987101444</v>
+        <v>80.99328987101445</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>70.18970723159761</v>
       </c>
       <c r="I13" t="n">
-        <v>26.39132083909306</v>
+        <v>51.54271933957221</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.25700797949674</v>
+        <v>54.25700797949676</v>
       </c>
       <c r="S13" t="n">
-        <v>122.5209173779917</v>
+        <v>61.47620793067285</v>
       </c>
       <c r="T13" t="n">
-        <v>144.0491856790939</v>
+        <v>144.0491856790941</v>
       </c>
       <c r="U13" t="n">
-        <v>198.2430606650084</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>172.0620202246884</v>
@@ -1591,7 +1591,7 @@
         <v>197.2289062953016</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8740082911047</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>133.7488760471724</v>
@@ -1610,16 +1610,16 @@
         <v>292.0484899080474</v>
       </c>
       <c r="D14" t="n">
-        <v>244.9969196547527</v>
+        <v>283.0297939525754</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.7719315224809</v>
       </c>
       <c r="F14" t="n">
         <v>323.9437476104581</v>
       </c>
       <c r="G14" t="n">
-        <v>325.3788411523992</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>238.3252023681167</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>38.5709908389974</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>247.5435501905448</v>
       </c>
       <c r="W14" t="n">
         <v>272.8436496685017</v>
@@ -1673,7 +1673,7 @@
         <v>292.1439079012483</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.5405056974471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I15" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S15" t="n">
         <v>146.3205026044475</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.65388382506276</v>
+        <v>95.65388382506278</v>
       </c>
       <c r="C16" t="n">
-        <v>81.85387867046325</v>
+        <v>81.85387867046326</v>
       </c>
       <c r="D16" t="n">
-        <v>65.47524306804164</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>64.42299292382108</v>
+        <v>64.4229929238211</v>
       </c>
       <c r="F16" t="n">
-        <v>64.88991725200739</v>
+        <v>64.88991725200741</v>
       </c>
       <c r="G16" t="n">
-        <v>80.94115610775097</v>
+        <v>80.94115610775098</v>
       </c>
       <c r="H16" t="n">
-        <v>27.59683551936902</v>
+        <v>69.72619068185507</v>
       </c>
       <c r="I16" t="n">
-        <v>49.97491489524905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.91288440584997</v>
+        <v>51.91288440584994</v>
       </c>
       <c r="S16" t="n">
-        <v>121.6123680673</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>143.8264323269681</v>
+        <v>103.2175527222552</v>
       </c>
       <c r="U16" t="n">
         <v>198.240217005194</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>172.0620202246884</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>197.2289062953016</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8740082911047</v>
+        <v>142.8740082911048</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.7488760471724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>255.4941034721326</v>
       </c>
       <c r="H17" t="n">
-        <v>168.4404646878501</v>
+        <v>168.44046468785</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.05386863767734</v>
+        <v>18.05386863767731</v>
       </c>
       <c r="T17" t="n">
-        <v>63.98392971243925</v>
+        <v>63.98392971243922</v>
       </c>
       <c r="U17" t="n">
-        <v>96.34596012196752</v>
+        <v>96.34596012196749</v>
       </c>
       <c r="V17" t="n">
         <v>177.6588125102782</v>
@@ -1941,7 +1941,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I18" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S18" t="n">
         <v>146.3205026044475</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.76914614479617</v>
+        <v>25.76914614479614</v>
       </c>
       <c r="C19" t="n">
-        <v>11.96914099019665</v>
+        <v>11.96914099019662</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.05641842748437</v>
+        <v>11.05641842748435</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.5731589439262</v>
+        <v>92.57315894392643</v>
       </c>
       <c r="T19" t="n">
-        <v>73.94169464670172</v>
+        <v>73.94169464670169</v>
       </c>
       <c r="U19" t="n">
         <v>128.3554793249274</v>
       </c>
       <c r="V19" t="n">
-        <v>102.1772825444218</v>
+        <v>102.1772825444217</v>
       </c>
       <c r="W19" t="n">
         <v>127.344168615035</v>
       </c>
       <c r="X19" t="n">
-        <v>72.98927061083813</v>
+        <v>72.9892706108381</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.86413836690582</v>
+        <v>63.86413836690579</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>234.1524352700991</v>
       </c>
       <c r="C20" t="n">
-        <v>222.1637522277809</v>
+        <v>222.1637522277808</v>
       </c>
       <c r="D20" t="n">
-        <v>213.1450562723089</v>
+        <v>213.1450562723088</v>
       </c>
       <c r="E20" t="n">
-        <v>234.8871938422144</v>
+        <v>234.8871938422143</v>
       </c>
       <c r="F20" t="n">
-        <v>254.0590099301916</v>
+        <v>254.0590099301915</v>
       </c>
       <c r="G20" t="n">
-        <v>255.4941034721327</v>
+        <v>255.4941034721326</v>
       </c>
       <c r="H20" t="n">
-        <v>168.4404646878501</v>
+        <v>168.44046468785</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.0538686376774</v>
+        <v>18.05386863767732</v>
       </c>
       <c r="T20" t="n">
-        <v>63.98392971243931</v>
+        <v>63.98392971243923</v>
       </c>
       <c r="U20" t="n">
-        <v>96.34596012196758</v>
+        <v>96.34596012196749</v>
       </c>
       <c r="V20" t="n">
-        <v>177.6588125102783</v>
+        <v>177.6588125102782</v>
       </c>
       <c r="W20" t="n">
-        <v>202.9589119882352</v>
+        <v>202.9589119882351</v>
       </c>
       <c r="X20" t="n">
-        <v>222.2591702209818</v>
+        <v>222.2591702209817</v>
       </c>
       <c r="Y20" t="n">
         <v>233.6557680171805</v>
@@ -2178,7 +2178,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I21" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S21" t="n">
         <v>146.3205026044475</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.76914614479622</v>
+        <v>25.76914614479614</v>
       </c>
       <c r="C22" t="n">
-        <v>11.96914099019671</v>
+        <v>11.96914099019662</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.05641842748443</v>
+        <v>11.05641842748435</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>51.72763038703348</v>
+        <v>92.57315894392643</v>
       </c>
       <c r="T22" t="n">
-        <v>114.787223203594</v>
+        <v>73.94169464670169</v>
       </c>
       <c r="U22" t="n">
         <v>128.3554793249274</v>
       </c>
       <c r="V22" t="n">
-        <v>102.1772825444218</v>
+        <v>102.1772825444217</v>
       </c>
       <c r="W22" t="n">
-        <v>127.3441686150351</v>
+        <v>127.344168615035</v>
       </c>
       <c r="X22" t="n">
-        <v>72.98927061083819</v>
+        <v>72.9892706108381</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.86413836690588</v>
+        <v>63.86413836690579</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>234.1524352700991</v>
       </c>
       <c r="C23" t="n">
-        <v>222.1637522277809</v>
+        <v>222.1637522277808</v>
       </c>
       <c r="D23" t="n">
-        <v>213.1450562723089</v>
+        <v>213.1450562723088</v>
       </c>
       <c r="E23" t="n">
-        <v>234.8871938422144</v>
+        <v>234.8871938422143</v>
       </c>
       <c r="F23" t="n">
-        <v>254.0590099301916</v>
+        <v>254.0590099301915</v>
       </c>
       <c r="G23" t="n">
-        <v>255.4941034721327</v>
+        <v>255.4941034721326</v>
       </c>
       <c r="H23" t="n">
-        <v>168.4404646878501</v>
+        <v>168.44046468785</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.0538686376774</v>
+        <v>18.05386863767731</v>
       </c>
       <c r="T23" t="n">
-        <v>63.98392971243931</v>
+        <v>63.98392971243923</v>
       </c>
       <c r="U23" t="n">
-        <v>96.34596012196758</v>
+        <v>96.34596012196751</v>
       </c>
       <c r="V23" t="n">
-        <v>177.6588125102783</v>
+        <v>177.6588125102782</v>
       </c>
       <c r="W23" t="n">
-        <v>202.9589119882352</v>
+        <v>202.9589119882351</v>
       </c>
       <c r="X23" t="n">
-        <v>222.2591702209818</v>
+        <v>222.2591702209817</v>
       </c>
       <c r="Y23" t="n">
         <v>233.6557680171805</v>
@@ -2415,7 +2415,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I24" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S24" t="n">
         <v>146.3205026044475</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.76914614479622</v>
+        <v>25.76914614479614</v>
       </c>
       <c r="C25" t="n">
-        <v>11.96914099019671</v>
+        <v>11.96914099019662</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.05641842748443</v>
+        <v>11.05641842748435</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.57315894392563</v>
+        <v>92.57315894392654</v>
       </c>
       <c r="T25" t="n">
-        <v>73.94169464670178</v>
+        <v>73.94169464670169</v>
       </c>
       <c r="U25" t="n">
         <v>128.3554793249274</v>
       </c>
       <c r="V25" t="n">
-        <v>102.1772825444218</v>
+        <v>102.1772825444217</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3441686150351</v>
+        <v>127.344168615035</v>
       </c>
       <c r="X25" t="n">
-        <v>72.98927061083819</v>
+        <v>72.9892706108381</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.86413836690588</v>
+        <v>63.86413836690579</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.0682193103973</v>
       </c>
       <c r="I26" t="n">
-        <v>48.56024573340265</v>
+        <v>48.56024573340271</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.68162326022455</v>
+        <v>70.68162326022458</v>
       </c>
       <c r="T26" t="n">
         <v>116.6116843349865</v>
       </c>
       <c r="U26" t="n">
-        <v>148.9737147445147</v>
+        <v>148.9737147445148</v>
       </c>
       <c r="V26" t="n">
         <v>230.2865671328254</v>
@@ -2652,7 +2652,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I27" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S27" t="n">
         <v>146.3205026044475</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.39690076734338</v>
+        <v>78.39690076734341</v>
       </c>
       <c r="C28" t="n">
-        <v>64.59689561274386</v>
+        <v>64.59689561274389</v>
       </c>
       <c r="D28" t="n">
-        <v>48.21826001032225</v>
+        <v>48.21826001032228</v>
       </c>
       <c r="E28" t="n">
-        <v>47.1660098661017</v>
+        <v>47.16600986610173</v>
       </c>
       <c r="F28" t="n">
-        <v>47.63293419428801</v>
+        <v>47.63293419428804</v>
       </c>
       <c r="G28" t="n">
-        <v>63.68417305003159</v>
+        <v>63.68417305003162</v>
       </c>
       <c r="H28" t="n">
-        <v>52.46920762413568</v>
+        <v>52.46920762413571</v>
       </c>
       <c r="I28" t="n">
-        <v>32.71793183752936</v>
+        <v>32.71793183752939</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65590134813053</v>
+        <v>34.65590134813057</v>
       </c>
       <c r="S28" t="n">
-        <v>104.3553850095806</v>
+        <v>104.3553850095807</v>
       </c>
       <c r="T28" t="n">
-        <v>126.5694492692489</v>
+        <v>126.569449269249</v>
       </c>
       <c r="U28" t="n">
         <v>180.9832339474746</v>
@@ -2776,10 +2776,10 @@
         <v>179.9719232375822</v>
       </c>
       <c r="X28" t="n">
-        <v>125.6170252333853</v>
+        <v>125.6170252333854</v>
       </c>
       <c r="Y28" t="n">
-        <v>116.491892989453</v>
+        <v>116.4918929894531</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.0682193103973</v>
       </c>
       <c r="I29" t="n">
-        <v>48.56024573340265</v>
+        <v>48.56024573340271</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.68162326022455</v>
+        <v>70.68162326022458</v>
       </c>
       <c r="T29" t="n">
         <v>116.6116843349865</v>
       </c>
       <c r="U29" t="n">
-        <v>148.9737147445147</v>
+        <v>148.9737147445148</v>
       </c>
       <c r="V29" t="n">
         <v>230.2865671328254</v>
@@ -2889,7 +2889,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I30" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S30" t="n">
         <v>146.3205026044475</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.39690076734338</v>
+        <v>78.39690076734341</v>
       </c>
       <c r="C31" t="n">
-        <v>64.59689561274386</v>
+        <v>64.59689561274389</v>
       </c>
       <c r="D31" t="n">
-        <v>48.21826001032225</v>
+        <v>48.21826001032228</v>
       </c>
       <c r="E31" t="n">
-        <v>47.1660098661017</v>
+        <v>47.16600986610173</v>
       </c>
       <c r="F31" t="n">
-        <v>47.63293419428801</v>
+        <v>47.63293419428804</v>
       </c>
       <c r="G31" t="n">
-        <v>63.68417305003159</v>
+        <v>63.68417305003162</v>
       </c>
       <c r="H31" t="n">
-        <v>52.46920762413568</v>
+        <v>52.46920762413571</v>
       </c>
       <c r="I31" t="n">
-        <v>32.71793183752935</v>
+        <v>32.71793183752941</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65590134813054</v>
+        <v>34.65590134813057</v>
       </c>
       <c r="S31" t="n">
-        <v>104.3553850095806</v>
+        <v>104.3553850095807</v>
       </c>
       <c r="T31" t="n">
         <v>126.5694492692489</v>
       </c>
       <c r="U31" t="n">
-        <v>180.9832339474747</v>
+        <v>180.9832339474742</v>
       </c>
       <c r="V31" t="n">
         <v>154.805037166969</v>
@@ -3013,10 +3013,10 @@
         <v>179.9719232375822</v>
       </c>
       <c r="X31" t="n">
-        <v>125.6170252333853</v>
+        <v>125.6170252333854</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.491892989453</v>
+        <v>116.4918929894531</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.6642797064146</v>
+        <v>251.6642797064149</v>
       </c>
       <c r="C32" t="n">
-        <v>239.6755966640964</v>
+        <v>239.6755966640967</v>
       </c>
       <c r="D32" t="n">
-        <v>230.6569007086244</v>
+        <v>230.6569007086246</v>
       </c>
       <c r="E32" t="n">
-        <v>252.3990382785299</v>
+        <v>252.3990382785302</v>
       </c>
       <c r="F32" t="n">
-        <v>271.5708543665071</v>
+        <v>271.5708543665073</v>
       </c>
       <c r="G32" t="n">
-        <v>273.0059479084482</v>
+        <v>273.0059479084484</v>
       </c>
       <c r="H32" t="n">
-        <v>185.9523091241656</v>
+        <v>185.9523091241659</v>
       </c>
       <c r="I32" t="n">
-        <v>13.44433554717099</v>
+        <v>13.44433554717131</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.5657130739929</v>
+        <v>35.56571307399318</v>
       </c>
       <c r="T32" t="n">
-        <v>81.4957741487548</v>
+        <v>81.49577414875509</v>
       </c>
       <c r="U32" t="n">
-        <v>113.8578045582831</v>
+        <v>113.8578045582834</v>
       </c>
       <c r="V32" t="n">
-        <v>195.1706569465938</v>
+        <v>195.1706569465941</v>
       </c>
       <c r="W32" t="n">
-        <v>220.4707564245507</v>
+        <v>220.470756424551</v>
       </c>
       <c r="X32" t="n">
-        <v>239.7710146572973</v>
+        <v>239.7710146572976</v>
       </c>
       <c r="Y32" t="n">
-        <v>251.167612453496</v>
+        <v>251.1676124534963</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I33" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S33" t="n">
         <v>146.3205026044475</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.28099058111172</v>
+        <v>43.28099058111201</v>
       </c>
       <c r="C34" t="n">
-        <v>29.48098542651221</v>
+        <v>29.48098542651249</v>
       </c>
       <c r="D34" t="n">
-        <v>13.1023498240906</v>
+        <v>13.10234982409088</v>
       </c>
       <c r="E34" t="n">
-        <v>12.05009967987004</v>
+        <v>12.05009967987033</v>
       </c>
       <c r="F34" t="n">
-        <v>12.51702400805635</v>
+        <v>12.51702400805664</v>
       </c>
       <c r="G34" t="n">
-        <v>28.56826286379993</v>
+        <v>28.56826286380021</v>
       </c>
       <c r="H34" t="n">
-        <v>17.35329743790402</v>
+        <v>17.3532974379043</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>69.23947482334898</v>
+        <v>69.23947482334927</v>
       </c>
       <c r="T34" t="n">
-        <v>91.45353908301728</v>
+        <v>91.45353908301756</v>
       </c>
       <c r="U34" t="n">
-        <v>145.8673237612429</v>
+        <v>145.8673237612432</v>
       </c>
       <c r="V34" t="n">
-        <v>119.6891269807373</v>
+        <v>119.6891269807376</v>
       </c>
       <c r="W34" t="n">
-        <v>144.8560130513506</v>
+        <v>144.8560130513509</v>
       </c>
       <c r="X34" t="n">
-        <v>90.50111504715369</v>
+        <v>90.50111504715397</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.37598280322138</v>
+        <v>81.37598280322166</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I36" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S36" t="n">
         <v>146.3205026044475</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.1524352700991</v>
+        <v>234.152435270099</v>
       </c>
       <c r="C38" t="n">
         <v>222.1637522277808</v>
@@ -3518,7 +3518,7 @@
         <v>255.4941034721326</v>
       </c>
       <c r="H38" t="n">
-        <v>168.4404646878501</v>
+        <v>168.44046468785</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.05386863767734</v>
+        <v>18.05386863767728</v>
       </c>
       <c r="T38" t="n">
-        <v>63.98392971243925</v>
+        <v>63.98392971243919</v>
       </c>
       <c r="U38" t="n">
-        <v>96.34596012196752</v>
+        <v>96.34596012196747</v>
       </c>
       <c r="V38" t="n">
         <v>177.6588125102782</v>
@@ -3569,7 +3569,7 @@
         <v>222.2591702209817</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.6557680171805</v>
+        <v>233.6557680171804</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I39" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S39" t="n">
         <v>146.3205026044475</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.76914614479617</v>
+        <v>25.76914614479611</v>
       </c>
       <c r="C40" t="n">
-        <v>11.96914099019665</v>
+        <v>11.96914099019659</v>
       </c>
       <c r="D40" t="n">
-        <v>40.8455285568927</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>11.05641842748437</v>
+        <v>11.05641842748432</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>51.72763038703342</v>
+        <v>92.57315894392666</v>
       </c>
       <c r="T40" t="n">
-        <v>73.94169464670172</v>
+        <v>73.94169464670166</v>
       </c>
       <c r="U40" t="n">
-        <v>128.3554793249274</v>
+        <v>128.3554793249273</v>
       </c>
       <c r="V40" t="n">
-        <v>102.1772825444218</v>
+        <v>102.1772825444217</v>
       </c>
       <c r="W40" t="n">
         <v>127.344168615035</v>
       </c>
       <c r="X40" t="n">
-        <v>72.98927061083813</v>
+        <v>72.98927061083808</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.86413836690582</v>
+        <v>63.86413836690576</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>234.1524352700991</v>
       </c>
       <c r="C41" t="n">
-        <v>222.1637522277808</v>
+        <v>222.1637522277809</v>
       </c>
       <c r="D41" t="n">
-        <v>213.1450562723088</v>
+        <v>213.1450562723089</v>
       </c>
       <c r="E41" t="n">
-        <v>234.8871938422143</v>
+        <v>234.8871938422144</v>
       </c>
       <c r="F41" t="n">
-        <v>254.0590099301915</v>
+        <v>254.0590099301916</v>
       </c>
       <c r="G41" t="n">
-        <v>255.4941034721326</v>
+        <v>255.4941034721327</v>
       </c>
       <c r="H41" t="n">
-        <v>168.44046468785</v>
+        <v>168.4404646878501</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.05386863767731</v>
+        <v>18.0538686376774</v>
       </c>
       <c r="T41" t="n">
-        <v>63.98392971243922</v>
+        <v>63.98392971243931</v>
       </c>
       <c r="U41" t="n">
-        <v>96.34596012196749</v>
+        <v>96.34596012196758</v>
       </c>
       <c r="V41" t="n">
-        <v>177.6588125102782</v>
+        <v>177.6588125102783</v>
       </c>
       <c r="W41" t="n">
-        <v>202.9589119882351</v>
+        <v>202.9589119882352</v>
       </c>
       <c r="X41" t="n">
-        <v>222.2591702209817</v>
+        <v>222.2591702209818</v>
       </c>
       <c r="Y41" t="n">
         <v>233.6557680171805</v>
@@ -3837,7 +3837,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I42" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S42" t="n">
         <v>146.3205026044475</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.76914614479614</v>
+        <v>25.76914614479622</v>
       </c>
       <c r="C43" t="n">
-        <v>11.96914099019662</v>
+        <v>11.96914099019671</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>11.05641842748435</v>
+        <v>11.05641842748443</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.57315894392643</v>
+        <v>92.57315894392563</v>
       </c>
       <c r="T43" t="n">
-        <v>73.94169464670169</v>
+        <v>73.94169464670178</v>
       </c>
       <c r="U43" t="n">
         <v>128.3554793249274</v>
       </c>
       <c r="V43" t="n">
-        <v>102.1772825444217</v>
+        <v>102.1772825444218</v>
       </c>
       <c r="W43" t="n">
-        <v>127.344168615035</v>
+        <v>127.3441686150351</v>
       </c>
       <c r="X43" t="n">
-        <v>72.9892706108381</v>
+        <v>72.98927061083819</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.86413836690579</v>
+        <v>63.86413836690588</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I45" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939542</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328265</v>
       </c>
       <c r="S45" t="n">
         <v>146.3205026044475</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.76914614479614</v>
+        <v>66.61467470168915</v>
       </c>
       <c r="C46" t="n">
         <v>11.96914099019662</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.57315894392654</v>
+        <v>51.72763038703339</v>
       </c>
       <c r="T46" t="n">
         <v>73.94169464670169</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>444.3339310908456</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C8" t="n">
-        <v>444.3339310908456</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D8" t="n">
-        <v>307.2335277601064</v>
+        <v>432.2703485854376</v>
       </c>
       <c r="E8" t="n">
-        <v>307.2335277601064</v>
+        <v>432.2703485854376</v>
       </c>
       <c r="F8" t="n">
-        <v>297.1227411106808</v>
+        <v>422.159561936012</v>
       </c>
       <c r="G8" t="n">
         <v>285.0591586052728</v>
@@ -4802,25 +4802,25 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J8" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L8" t="n">
-        <v>217.2290015210577</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M8" t="n">
-        <v>351.6011068255151</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="N8" t="n">
-        <v>485.9732121299726</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O8" t="n">
-        <v>485.9732121299726</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P8" t="n">
-        <v>485.9732121299726</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q8" t="n">
         <v>542.9175971897271</v>
@@ -4844,10 +4844,10 @@
         <v>542.9175971897271</v>
       </c>
       <c r="X8" t="n">
-        <v>444.3339310908456</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y8" t="n">
-        <v>444.3339310908456</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="C9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="D9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="E9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="F9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="G9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="H9" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
@@ -4890,43 +4890,43 @@
         <v>145.230457248252</v>
       </c>
       <c r="M9" t="n">
-        <v>279.6025625527094</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N9" t="n">
-        <v>413.9746678571669</v>
+        <v>145.230457248252</v>
       </c>
       <c r="O9" t="n">
-        <v>413.9746678571669</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P9" t="n">
-        <v>413.9746678571669</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q9" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S9" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T9" t="n">
-        <v>268.7167905282488</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U9" t="n">
-        <v>131.6163871975096</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="V9" t="n">
-        <v>79.24063725373355</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="W9" t="n">
-        <v>79.24063725373355</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="X9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="Y9" t="n">
-        <v>79.24063725373355</v>
+        <v>71.83211829245539</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4987,25 +4987,25 @@
         <v>504.380255843416</v>
       </c>
       <c r="S10" t="n">
-        <v>367.2798525126768</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T10" t="n">
-        <v>367.2798525126768</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U10" t="n">
-        <v>367.2798525126768</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V10" t="n">
-        <v>367.2798525126768</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W10" t="n">
-        <v>230.1794491819377</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X10" t="n">
-        <v>230.1794491819377</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.07904585119849</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1533.825011555568</v>
+        <v>713.086518868402</v>
       </c>
       <c r="C11" t="n">
-        <v>1238.826536900975</v>
+        <v>418.0880442138086</v>
       </c>
       <c r="D11" t="n">
-        <v>952.9378561407976</v>
+        <v>418.0880442138086</v>
       </c>
       <c r="E11" t="n">
-        <v>645.0874202595037</v>
+        <v>418.0880442138086</v>
       </c>
       <c r="F11" t="n">
-        <v>317.8715135822729</v>
+        <v>363.7967467003471</v>
       </c>
       <c r="G11" t="n">
-        <v>317.8715135822729</v>
+        <v>363.7967467003471</v>
       </c>
       <c r="H11" t="n">
-        <v>75.93669130257544</v>
+        <v>121.8619244206496</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532633</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907119</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5075,16 +5075,16 @@
         <v>2147.539838472551</v>
       </c>
       <c r="V11" t="n">
-        <v>2147.539838472551</v>
+        <v>1897.495848381092</v>
       </c>
       <c r="W11" t="n">
-        <v>2147.539838472551</v>
+        <v>1621.896202251292</v>
       </c>
       <c r="X11" t="n">
-        <v>2147.539838472551</v>
+        <v>1326.801345785385</v>
       </c>
       <c r="Y11" t="n">
-        <v>1840.933267060988</v>
+        <v>1020.194774373822</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050872</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
@@ -5124,13 +5124,13 @@
         <v>392.3832078845233</v>
       </c>
       <c r="L12" t="n">
-        <v>802.1338407649491</v>
+        <v>802.133840764949</v>
       </c>
       <c r="M12" t="n">
         <v>1338.430017546049</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.032071547365</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O12" t="n">
         <v>2018.368674122672</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.3232212207977</v>
+        <v>468.927155138342</v>
       </c>
       <c r="C13" t="n">
-        <v>159.3232212207977</v>
+        <v>386.2464696126215</v>
       </c>
       <c r="D13" t="n">
-        <v>159.3232212207977</v>
+        <v>386.2464696126215</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3232212207977</v>
+        <v>321.1727393865395</v>
       </c>
       <c r="F13" t="n">
-        <v>159.3232212207977</v>
+        <v>255.6273684249159</v>
       </c>
       <c r="G13" t="n">
-        <v>77.51181731068235</v>
+        <v>173.8159645148003</v>
       </c>
       <c r="H13" t="n">
-        <v>77.51181731068235</v>
+        <v>102.9172703414694</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>89.18899764913226</v>
+        <v>89.1889976491322</v>
       </c>
       <c r="K13" t="n">
         <v>227.704845625761</v>
@@ -5224,25 +5224,25 @@
         <v>1281.269660190859</v>
       </c>
       <c r="S13" t="n">
-        <v>1157.511157788848</v>
+        <v>1219.172480462907</v>
       </c>
       <c r="T13" t="n">
-        <v>1012.006929830167</v>
+        <v>1073.668252504226</v>
       </c>
       <c r="U13" t="n">
-        <v>811.7614140069261</v>
+        <v>1073.668252504226</v>
       </c>
       <c r="V13" t="n">
-        <v>637.961393577948</v>
+        <v>899.8682320752479</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7402761079463</v>
+        <v>700.6471146052462</v>
       </c>
       <c r="X13" t="n">
-        <v>294.4230960159214</v>
+        <v>700.6471146052462</v>
       </c>
       <c r="Y13" t="n">
-        <v>159.3232212207977</v>
+        <v>565.5472398101225</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1492.624722137832</v>
+        <v>1510.226706650867</v>
       </c>
       <c r="C14" t="n">
-        <v>1197.626247483239</v>
+        <v>1215.228231996274</v>
       </c>
       <c r="D14" t="n">
-        <v>950.1546114683372</v>
+        <v>929.3395512360971</v>
       </c>
       <c r="E14" t="n">
-        <v>950.1546114683372</v>
+        <v>621.4891153548032</v>
       </c>
       <c r="F14" t="n">
-        <v>622.9387047911067</v>
+        <v>294.2732086775728</v>
       </c>
       <c r="G14" t="n">
         <v>294.2732086775728</v>
@@ -5276,16 +5276,16 @@
         <v>53.54068103301044</v>
       </c>
       <c r="J14" t="n">
-        <v>167.3983317523201</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2746535064592</v>
+        <v>470.2746535064593</v>
       </c>
       <c r="L14" t="n">
-        <v>895.9895196980098</v>
+        <v>895.9895196980101</v>
       </c>
       <c r="M14" t="n">
-        <v>1375.828993170051</v>
+        <v>1375.828993170052</v>
       </c>
       <c r="N14" t="n">
         <v>1842.161942585358</v>
@@ -5309,19 +5309,19 @@
         <v>2677.034051650522</v>
       </c>
       <c r="U14" t="n">
-        <v>2677.034051650522</v>
+        <v>2638.073454843454</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.034051650522</v>
+        <v>2388.029464751994</v>
       </c>
       <c r="W14" t="n">
-        <v>2401.434405520723</v>
+        <v>2112.429818622194</v>
       </c>
       <c r="X14" t="n">
-        <v>2106.339549054815</v>
+        <v>1817.334962156287</v>
       </c>
       <c r="Y14" t="n">
-        <v>1799.732977643252</v>
+        <v>1817.334962156287</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1060.521532412476</v>
+        <v>920.7140613833559</v>
       </c>
       <c r="C15" t="n">
-        <v>898.8178596534306</v>
+        <v>759.0103886243106</v>
       </c>
       <c r="D15" t="n">
-        <v>759.9792226436426</v>
+        <v>620.1717516145227</v>
       </c>
       <c r="E15" t="n">
-        <v>612.9512127005139</v>
+        <v>473.1437416713939</v>
       </c>
       <c r="F15" t="n">
-        <v>478.2574146503882</v>
+        <v>338.4499436212682</v>
       </c>
       <c r="G15" t="n">
-        <v>349.7981538443525</v>
+        <v>209.9906828152324</v>
       </c>
       <c r="H15" t="n">
-        <v>252.4605799605097</v>
+        <v>112.6531089313897</v>
       </c>
       <c r="I15" t="n">
-        <v>193.3481520621305</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J15" t="n">
-        <v>278.5332956311872</v>
+        <v>138.7258246020671</v>
       </c>
       <c r="K15" t="n">
-        <v>550.6348930765989</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L15" t="n">
-        <v>973.7525466244467</v>
+        <v>833.9450755953267</v>
       </c>
       <c r="M15" t="n">
-        <v>1525.647406042795</v>
+        <v>1385.839935013675</v>
       </c>
       <c r="N15" t="n">
-        <v>1678.108500512441</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.092527997266</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P15" t="n">
-        <v>2485.57820396723</v>
+        <v>2345.770732938111</v>
       </c>
       <c r="Q15" t="n">
-        <v>2677.034051650522</v>
+        <v>2537.226580621403</v>
       </c>
       <c r="R15" t="n">
-        <v>2633.966228798721</v>
+        <v>2494.158757769602</v>
       </c>
       <c r="S15" t="n">
-        <v>2486.167741319481</v>
+        <v>2346.360270290362</v>
       </c>
       <c r="T15" t="n">
-        <v>2298.567860283074</v>
+        <v>2158.760389253955</v>
       </c>
       <c r="U15" t="n">
-        <v>2080.090780984719</v>
+        <v>1940.283309955599</v>
       </c>
       <c r="V15" t="n">
-        <v>1851.695158433053</v>
+        <v>1711.887687403933</v>
       </c>
       <c r="W15" t="n">
-        <v>1610.379289666363</v>
+        <v>1470.571818637243</v>
       </c>
       <c r="X15" t="n">
-        <v>1412.462301544158</v>
+        <v>1272.654830515038</v>
       </c>
       <c r="Y15" t="n">
-        <v>1219.940975193737</v>
+        <v>1080.133504164617</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0911238983664</v>
+        <v>419.0297069278568</v>
       </c>
       <c r="C16" t="n">
-        <v>410.410438372646</v>
+        <v>336.3490214021363</v>
       </c>
       <c r="D16" t="n">
-        <v>344.273829213008</v>
+        <v>336.3490214021363</v>
       </c>
       <c r="E16" t="n">
-        <v>279.200098986926</v>
+        <v>271.2752911760543</v>
       </c>
       <c r="F16" t="n">
-        <v>213.6547280253024</v>
+        <v>205.7299202144307</v>
       </c>
       <c r="G16" t="n">
-        <v>131.8959844821196</v>
+        <v>123.9711766712479</v>
       </c>
       <c r="H16" t="n">
-        <v>104.0203930484135</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I16" t="n">
         <v>53.54068103301044</v>
@@ -5437,22 +5437,22 @@
         <v>95.52475970102853</v>
       </c>
       <c r="K16" t="n">
-        <v>240.0370331282223</v>
+        <v>240.0370331282224</v>
       </c>
       <c r="L16" t="n">
         <v>458.7401369120587</v>
       </c>
       <c r="M16" t="n">
-        <v>696.6176018119372</v>
+        <v>696.617601811937</v>
       </c>
       <c r="N16" t="n">
-        <v>934.0993206697345</v>
+        <v>934.0993206697342</v>
       </c>
       <c r="O16" t="n">
-        <v>1149.037984667908</v>
+        <v>1149.037984667907</v>
       </c>
       <c r="P16" t="n">
-        <v>1323.968409668786</v>
+        <v>1323.968409668785</v>
       </c>
       <c r="Q16" t="n">
         <v>1389.928164270742</v>
@@ -5461,25 +5461,25 @@
         <v>1337.490907295136</v>
       </c>
       <c r="S16" t="n">
-        <v>1214.650131469581</v>
+        <v>1337.490907295136</v>
       </c>
       <c r="T16" t="n">
-        <v>1069.370906896886</v>
+        <v>1233.230753030232</v>
       </c>
       <c r="U16" t="n">
-        <v>869.1282634572956</v>
+        <v>1032.988109590642</v>
       </c>
       <c r="V16" t="n">
-        <v>869.1282634572956</v>
+        <v>859.188089161664</v>
       </c>
       <c r="W16" t="n">
-        <v>869.1282634572956</v>
+        <v>659.9669716916624</v>
       </c>
       <c r="X16" t="n">
-        <v>724.8110833652706</v>
+        <v>515.6497915996374</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.7112085701469</v>
+        <v>515.6497915996374</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1415.348338035514</v>
+        <v>1415.348338035513</v>
       </c>
       <c r="C17" t="n">
         <v>1190.940507502401</v>
       </c>
       <c r="D17" t="n">
-        <v>975.642470863706</v>
+        <v>975.6424708637053</v>
       </c>
       <c r="E17" t="n">
-        <v>738.3826791038935</v>
+        <v>738.3826791038928</v>
       </c>
       <c r="F17" t="n">
-        <v>481.7574165481446</v>
+        <v>481.7574165481437</v>
       </c>
       <c r="G17" t="n">
         <v>223.6825645560913</v>
       </c>
       <c r="H17" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I17" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J17" t="n">
-        <v>167.3983317523201</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2746535064592</v>
+        <v>470.2746535064593</v>
       </c>
       <c r="L17" t="n">
         <v>895.9895196980101</v>
@@ -5534,22 +5534,22 @@
         <v>2529.342544292798</v>
       </c>
       <c r="Q17" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="R17" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="S17" t="n">
         <v>2658.797820703373</v>
       </c>
       <c r="T17" t="n">
-        <v>2594.167588670607</v>
+        <v>2594.167588670606</v>
       </c>
       <c r="U17" t="n">
-        <v>2496.848437032256</v>
+        <v>2496.848437032255</v>
       </c>
       <c r="V17" t="n">
-        <v>2317.395091062278</v>
+        <v>2317.395091062277</v>
       </c>
       <c r="W17" t="n">
         <v>2112.386089053959</v>
@@ -5558,7 +5558,7 @@
         <v>1887.881876709533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1651.865949419452</v>
+        <v>1651.865949419451</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I18" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J18" t="n">
         <v>138.7258246020671</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8274220474789</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L18" t="n">
         <v>833.9450755953267</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.79882185895089</v>
+        <v>76.79882185895082</v>
       </c>
       <c r="C19" t="n">
-        <v>64.70878045471184</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="D19" t="n">
-        <v>64.70878045471184</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="E19" t="n">
-        <v>64.70878045471184</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="F19" t="n">
-        <v>64.70878045471184</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="G19" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="H19" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I19" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J19" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="K19" t="n">
         <v>112.8476825994557</v>
@@ -5689,34 +5689,34 @@
         <v>681.0275466961471</v>
       </c>
       <c r="P19" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362763</v>
       </c>
       <c r="Q19" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362763</v>
       </c>
       <c r="R19" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362763</v>
       </c>
       <c r="S19" t="n">
-        <v>677.2444584787752</v>
+        <v>677.2444584787748</v>
       </c>
       <c r="T19" t="n">
-        <v>602.5558780275613</v>
+        <v>602.555878027561</v>
       </c>
       <c r="U19" t="n">
-        <v>472.9038787094528</v>
+        <v>472.9038787094526</v>
       </c>
       <c r="V19" t="n">
-        <v>369.6945024019561</v>
+        <v>369.6945024019559</v>
       </c>
       <c r="W19" t="n">
-        <v>241.0640290534359</v>
+        <v>241.0640290534357</v>
       </c>
       <c r="X19" t="n">
-        <v>167.3374930828923</v>
+        <v>167.3374930828922</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.82826240925</v>
+        <v>102.8282624092499</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1190.940507502402</v>
       </c>
       <c r="D20" t="n">
-        <v>975.6424708637062</v>
+        <v>975.642470863706</v>
       </c>
       <c r="E20" t="n">
-        <v>738.3826791038937</v>
+        <v>738.3826791038935</v>
       </c>
       <c r="F20" t="n">
-        <v>481.7574165481446</v>
+        <v>481.7574165481444</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6825645560914</v>
+        <v>223.6825645560913</v>
       </c>
       <c r="H20" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I20" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J20" t="n">
         <v>167.39833175232</v>
@@ -5765,19 +5765,19 @@
         <v>1842.161942585358</v>
       </c>
       <c r="O20" t="n">
-        <v>2230.263933750938</v>
+        <v>2230.263933750937</v>
       </c>
       <c r="P20" t="n">
-        <v>2529.342544292799</v>
+        <v>2529.342544292798</v>
       </c>
       <c r="Q20" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="R20" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="S20" t="n">
-        <v>2658.797820703374</v>
+        <v>2658.797820703373</v>
       </c>
       <c r="T20" t="n">
         <v>2594.167588670607</v>
@@ -5826,13 +5826,13 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I21" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J21" t="n">
         <v>138.7258246020671</v>
       </c>
       <c r="K21" t="n">
-        <v>410.8274220474789</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L21" t="n">
         <v>833.9450755953267</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.798821858951</v>
+        <v>76.79882185895082</v>
       </c>
       <c r="C22" t="n">
-        <v>64.7087804547119</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="D22" t="n">
-        <v>64.7087804547119</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="E22" t="n">
-        <v>64.7087804547119</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="F22" t="n">
-        <v>64.7087804547119</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="G22" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="H22" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I22" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J22" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="K22" t="n">
         <v>112.8476825994557</v>
@@ -5926,34 +5926,34 @@
         <v>681.0275466961471</v>
       </c>
       <c r="P22" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362763</v>
       </c>
       <c r="Q22" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362763</v>
       </c>
       <c r="R22" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362763</v>
       </c>
       <c r="S22" t="n">
-        <v>718.5025681322022</v>
+        <v>677.2444584787748</v>
       </c>
       <c r="T22" t="n">
-        <v>602.5558780275618</v>
+        <v>602.555878027561</v>
       </c>
       <c r="U22" t="n">
-        <v>472.9038787094532</v>
+        <v>472.9038787094526</v>
       </c>
       <c r="V22" t="n">
-        <v>369.6945024019565</v>
+        <v>369.6945024019559</v>
       </c>
       <c r="W22" t="n">
-        <v>241.0640290534362</v>
+        <v>241.0640290534357</v>
       </c>
       <c r="X22" t="n">
-        <v>167.3374930828925</v>
+        <v>167.3374930828922</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.8282624092502</v>
+        <v>102.8282624092499</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1415.348338035515</v>
+        <v>1415.348338035514</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.940507502403</v>
+        <v>1190.940507502402</v>
       </c>
       <c r="D23" t="n">
-        <v>975.6424708637069</v>
+        <v>975.642470863706</v>
       </c>
       <c r="E23" t="n">
-        <v>738.3826791038944</v>
+        <v>738.3826791038935</v>
       </c>
       <c r="F23" t="n">
-        <v>481.7574165481452</v>
+        <v>481.7574165481444</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6825645560914</v>
+        <v>223.6825645560913</v>
       </c>
       <c r="H23" t="n">
-        <v>53.54068103301049</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I23" t="n">
-        <v>53.54068103301049</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J23" t="n">
-        <v>167.3983317523201</v>
+        <v>167.39833175232</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2746535064592</v>
+        <v>470.2746535064591</v>
       </c>
       <c r="L23" t="n">
-        <v>895.9895196980101</v>
+        <v>895.9895196980099</v>
       </c>
       <c r="M23" t="n">
-        <v>1375.828993170054</v>
+        <v>1375.828993170052</v>
       </c>
       <c r="N23" t="n">
-        <v>1842.16194258536</v>
+        <v>1842.161942585358</v>
       </c>
       <c r="O23" t="n">
-        <v>2230.263933750939</v>
+        <v>2230.263933750937</v>
       </c>
       <c r="P23" t="n">
-        <v>2529.342544292801</v>
+        <v>2529.342544292798</v>
       </c>
       <c r="Q23" t="n">
-        <v>2677.034051650524</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="R23" t="n">
-        <v>2677.034051650524</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="S23" t="n">
-        <v>2658.797820703376</v>
+        <v>2658.797820703373</v>
       </c>
       <c r="T23" t="n">
-        <v>2594.167588670609</v>
+        <v>2594.167588670607</v>
       </c>
       <c r="U23" t="n">
-        <v>2496.848437032258</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V23" t="n">
-        <v>2317.395091062279</v>
+        <v>2317.395091062278</v>
       </c>
       <c r="W23" t="n">
-        <v>2112.386089053961</v>
+        <v>2112.386089053959</v>
       </c>
       <c r="X23" t="n">
-        <v>1887.881876709535</v>
+        <v>1887.881876709533</v>
       </c>
       <c r="Y23" t="n">
-        <v>1651.865949419454</v>
+        <v>1651.865949419452</v>
       </c>
     </row>
     <row r="24">
@@ -6063,13 +6063,13 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I24" t="n">
-        <v>53.54068103301049</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J24" t="n">
         <v>138.7258246020671</v>
       </c>
       <c r="K24" t="n">
-        <v>410.8274220474789</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L24" t="n">
         <v>833.9450755953267</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.79882185895103</v>
+        <v>76.79882185895082</v>
       </c>
       <c r="C25" t="n">
-        <v>64.70878045471193</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="D25" t="n">
-        <v>64.70878045471193</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="E25" t="n">
-        <v>64.70878045471193</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="F25" t="n">
-        <v>64.70878045471193</v>
+        <v>64.7087804547118</v>
       </c>
       <c r="G25" t="n">
-        <v>53.54068103301049</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="H25" t="n">
-        <v>53.54068103301049</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I25" t="n">
-        <v>53.54068103301049</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J25" t="n">
-        <v>53.54068103301049</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="K25" t="n">
         <v>112.8476825994557</v>
       </c>
       <c r="L25" t="n">
-        <v>246.3455145225437</v>
+        <v>246.3455145225436</v>
       </c>
       <c r="M25" t="n">
-        <v>399.0177075616735</v>
+        <v>399.0177075616734</v>
       </c>
       <c r="N25" t="n">
-        <v>551.2941545587223</v>
+        <v>551.2941545587222</v>
       </c>
       <c r="O25" t="n">
-        <v>681.0275466961472</v>
+        <v>681.0275466961471</v>
       </c>
       <c r="P25" t="n">
         <v>770.7526998362764</v>
@@ -6172,25 +6172,25 @@
         <v>770.7526998362764</v>
       </c>
       <c r="S25" t="n">
-        <v>677.2444584787758</v>
+        <v>677.2444584787748</v>
       </c>
       <c r="T25" t="n">
-        <v>602.5558780275618</v>
+        <v>602.555878027561</v>
       </c>
       <c r="U25" t="n">
-        <v>472.9038787094532</v>
+        <v>472.9038787094526</v>
       </c>
       <c r="V25" t="n">
-        <v>369.6945024019565</v>
+        <v>369.6945024019559</v>
       </c>
       <c r="W25" t="n">
-        <v>241.0640290534362</v>
+        <v>241.0640290534357</v>
       </c>
       <c r="X25" t="n">
-        <v>167.3374930828925</v>
+        <v>167.3374930828922</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.8282624092502</v>
+        <v>102.8282624092499</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1799.544600876467</v>
       </c>
       <c r="C26" t="n">
-        <v>1521.977422239772</v>
+        <v>1521.977422239773</v>
       </c>
       <c r="D26" t="n">
         <v>1253.520037497494</v>
       </c>
       <c r="E26" t="n">
-        <v>963.1008976340981</v>
+        <v>963.100897634098</v>
       </c>
       <c r="F26" t="n">
-        <v>653.3162869747662</v>
+        <v>653.3162869747659</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0820868791299</v>
+        <v>342.0820868791297</v>
       </c>
       <c r="H26" t="n">
-        <v>118.7808552524661</v>
+        <v>118.7808552524662</v>
       </c>
       <c r="I26" t="n">
         <v>69.73010198640283</v>
@@ -6233,13 +6233,13 @@
         <v>1219.047995915074</v>
       </c>
       <c r="M26" t="n">
-        <v>1731.705689593998</v>
+        <v>1801.177154475007</v>
       </c>
       <c r="N26" t="n">
-        <v>2300.328324097195</v>
+        <v>2369.799788978204</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.720000350665</v>
+        <v>2860.191465231674</v>
       </c>
       <c r="P26" t="n">
         <v>3192.088295980417</v>
@@ -6254,19 +6254,19 @@
         <v>3415.10952026941</v>
       </c>
       <c r="T26" t="n">
-        <v>3297.319940133059</v>
+        <v>3297.31994013306</v>
       </c>
       <c r="U26" t="n">
-        <v>3146.841440391125</v>
+        <v>3146.841440391126</v>
       </c>
       <c r="V26" t="n">
-        <v>2914.228746317563</v>
+        <v>2914.228746317564</v>
       </c>
       <c r="W26" t="n">
-        <v>2656.060396205662</v>
+        <v>2656.060396205663</v>
       </c>
       <c r="X26" t="n">
-        <v>2378.396835757653</v>
+        <v>2378.396835757654</v>
       </c>
       <c r="Y26" t="n">
         <v>2089.221560363989</v>
@@ -6309,10 +6309,10 @@
         <v>427.0168430008712</v>
       </c>
       <c r="L27" t="n">
-        <v>850.1344965487191</v>
+        <v>850.134496548719</v>
       </c>
       <c r="M27" t="n">
-        <v>974.593673296702</v>
+        <v>1402.029355967068</v>
       </c>
       <c r="N27" t="n">
         <v>1554.490450436714</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>429.8163769310013</v>
+        <v>429.8163769310015</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5669874231792</v>
+        <v>364.5669874231794</v>
       </c>
       <c r="D28" t="n">
-        <v>315.8616742814395</v>
+        <v>315.8616742814397</v>
       </c>
       <c r="E28" t="n">
-        <v>268.219240073256</v>
+        <v>268.2192400732561</v>
       </c>
       <c r="F28" t="n">
-        <v>220.1051651295307</v>
+        <v>220.1051651295308</v>
       </c>
       <c r="G28" t="n">
-        <v>155.7777176042463</v>
+        <v>155.7777176042464</v>
       </c>
       <c r="H28" t="n">
-        <v>102.7785179839072</v>
+        <v>102.7785179839073</v>
       </c>
       <c r="I28" t="n">
         <v>69.73010198640283</v>
@@ -6385,19 +6385,19 @@
         <v>128.7985938815631</v>
       </c>
       <c r="K28" t="n">
-        <v>290.3952805358989</v>
+        <v>290.395280535899</v>
       </c>
       <c r="L28" t="n">
-        <v>526.1827975468775</v>
+        <v>526.182797546878</v>
       </c>
       <c r="M28" t="n">
-        <v>781.1446756738981</v>
+        <v>781.1446756738985</v>
       </c>
       <c r="N28" t="n">
         <v>1035.710807758838</v>
       </c>
       <c r="O28" t="n">
-        <v>1267.733884984153</v>
+        <v>1267.733884984154</v>
       </c>
       <c r="P28" t="n">
         <v>1459.748723212173</v>
@@ -6406,28 +6406,28 @@
         <v>1542.792891041272</v>
       </c>
       <c r="R28" t="n">
-        <v>1507.786930083564</v>
+        <v>1507.786930083565</v>
       </c>
       <c r="S28" t="n">
         <v>1402.377450275907</v>
       </c>
       <c r="T28" t="n">
-        <v>1274.52952172111</v>
+        <v>1274.529521721111</v>
       </c>
       <c r="U28" t="n">
-        <v>1091.718174299418</v>
+        <v>1091.718174299419</v>
       </c>
       <c r="V28" t="n">
-        <v>935.3494498883387</v>
+        <v>935.3494498883391</v>
       </c>
       <c r="W28" t="n">
-        <v>753.5596284362354</v>
+        <v>753.5596284362358</v>
       </c>
       <c r="X28" t="n">
-        <v>626.6737443621088</v>
+        <v>626.6737443621091</v>
       </c>
       <c r="Y28" t="n">
-        <v>509.0051655848835</v>
+        <v>509.0051655848837</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>1799.544600876467</v>
       </c>
       <c r="C29" t="n">
-        <v>1521.977422239772</v>
+        <v>1521.977422239773</v>
       </c>
       <c r="D29" t="n">
-        <v>1253.520037497493</v>
+        <v>1253.520037497494</v>
       </c>
       <c r="E29" t="n">
-        <v>963.1008976340979</v>
+        <v>963.100897634098</v>
       </c>
       <c r="F29" t="n">
         <v>653.3162869747659</v>
@@ -6455,10 +6455,10 @@
         <v>342.0820868791297</v>
       </c>
       <c r="H29" t="n">
-        <v>118.7808552524661</v>
+        <v>118.7808552524662</v>
       </c>
       <c r="I29" t="n">
-        <v>69.7301019864028</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="J29" t="n">
         <v>285.8774377936032</v>
@@ -6473,28 +6473,28 @@
         <v>1801.177154475007</v>
       </c>
       <c r="N29" t="n">
-        <v>2300.328324097194</v>
+        <v>2300.328324097196</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.720000350664</v>
+        <v>2790.720000350666</v>
       </c>
       <c r="P29" t="n">
-        <v>3192.088295980415</v>
+        <v>3192.088295980418</v>
       </c>
       <c r="Q29" t="n">
-        <v>3442.06948842603</v>
+        <v>3442.069488426033</v>
       </c>
       <c r="R29" t="n">
-        <v>3486.50509932014</v>
+        <v>3486.505099320143</v>
       </c>
       <c r="S29" t="n">
-        <v>3415.109520269408</v>
+        <v>3415.10952026941</v>
       </c>
       <c r="T29" t="n">
-        <v>3297.319940133058</v>
+        <v>3297.31994013306</v>
       </c>
       <c r="U29" t="n">
-        <v>3146.841440391124</v>
+        <v>3146.841440391125</v>
       </c>
       <c r="V29" t="n">
         <v>2914.228746317563</v>
@@ -6525,22 +6525,22 @@
         <v>636.361172567915</v>
       </c>
       <c r="E30" t="n">
-        <v>489.3331626247862</v>
+        <v>489.3331626247863</v>
       </c>
       <c r="F30" t="n">
-        <v>354.6393645746605</v>
+        <v>354.6393645746606</v>
       </c>
       <c r="G30" t="n">
         <v>226.1801037686248</v>
       </c>
       <c r="H30" t="n">
-        <v>128.842529884782</v>
+        <v>128.8425298847821</v>
       </c>
       <c r="I30" t="n">
-        <v>69.7301019864028</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="J30" t="n">
-        <v>154.9152455554594</v>
+        <v>154.9152455554595</v>
       </c>
       <c r="K30" t="n">
         <v>427.0168430008712</v>
@@ -6549,16 +6549,16 @@
         <v>850.134496548719</v>
       </c>
       <c r="M30" t="n">
-        <v>1402.029355967068</v>
+        <v>1166.049520979994</v>
       </c>
       <c r="N30" t="n">
-        <v>1981.92613310708</v>
+        <v>1745.946298120006</v>
       </c>
       <c r="O30" t="n">
-        <v>2009.474477921538</v>
+        <v>2200.93032560483</v>
       </c>
       <c r="P30" t="n">
-        <v>2361.960153891503</v>
+        <v>2553.416001574795</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.416001574795</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>429.8163769310013</v>
+        <v>429.8163769310015</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5669874231792</v>
+        <v>364.5669874231794</v>
       </c>
       <c r="D31" t="n">
-        <v>315.8616742814395</v>
+        <v>315.8616742814397</v>
       </c>
       <c r="E31" t="n">
-        <v>268.219240073256</v>
+        <v>268.2192400732562</v>
       </c>
       <c r="F31" t="n">
-        <v>220.1051651295307</v>
+        <v>220.1051651295309</v>
       </c>
       <c r="G31" t="n">
-        <v>155.7777176042463</v>
+        <v>155.7777176042464</v>
       </c>
       <c r="H31" t="n">
-        <v>102.7785179839072</v>
+        <v>102.7785179839073</v>
       </c>
       <c r="I31" t="n">
-        <v>69.7301019864028</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="J31" t="n">
         <v>128.7985938815631</v>
@@ -6628,7 +6628,7 @@
         <v>526.1827975468776</v>
       </c>
       <c r="M31" t="n">
-        <v>781.1446756738983</v>
+        <v>781.1446756738981</v>
       </c>
       <c r="N31" t="n">
         <v>1035.710807758838</v>
@@ -6655,16 +6655,16 @@
         <v>1091.718174299419</v>
       </c>
       <c r="V31" t="n">
-        <v>935.349449888339</v>
+        <v>935.3494498883391</v>
       </c>
       <c r="W31" t="n">
-        <v>753.5596284362357</v>
+        <v>753.5596284362358</v>
       </c>
       <c r="X31" t="n">
         <v>626.6737443621091</v>
       </c>
       <c r="Y31" t="n">
-        <v>509.0051655848835</v>
+        <v>509.0051655848837</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>1540.391934484571</v>
       </c>
       <c r="C32" t="n">
-        <v>1298.295372197605</v>
+        <v>1298.295372197606</v>
       </c>
       <c r="D32" t="n">
         <v>1065.308603805055</v>
@@ -6686,61 +6686,61 @@
         <v>810.3600802913885</v>
       </c>
       <c r="F32" t="n">
-        <v>536.0460859817854</v>
+        <v>536.0460859817852</v>
       </c>
       <c r="G32" t="n">
-        <v>260.2825022358782</v>
+        <v>260.2825022358777</v>
       </c>
       <c r="H32" t="n">
-        <v>72.45188695894259</v>
+        <v>72.45188695894296</v>
       </c>
       <c r="I32" t="n">
-        <v>58.87175004260826</v>
+        <v>58.87175004260831</v>
       </c>
       <c r="J32" t="n">
-        <v>217.696984081472</v>
+        <v>172.729400761918</v>
       </c>
       <c r="K32" t="n">
-        <v>520.5733058356111</v>
+        <v>475.6057225160571</v>
       </c>
       <c r="L32" t="n">
-        <v>946.2881720271619</v>
+        <v>901.3205887076078</v>
       </c>
       <c r="M32" t="n">
-        <v>1426.127645499204</v>
+        <v>1381.16006217965</v>
       </c>
       <c r="N32" t="n">
-        <v>1892.46059491451</v>
+        <v>1847.493011594956</v>
       </c>
       <c r="O32" t="n">
-        <v>2280.562586080089</v>
+        <v>2235.595002760535</v>
       </c>
       <c r="P32" t="n">
-        <v>2579.64119662195</v>
+        <v>2579.641196621953</v>
       </c>
       <c r="Q32" t="n">
-        <v>2864.387140151934</v>
+        <v>2864.387140151936</v>
       </c>
       <c r="R32" t="n">
-        <v>2943.587502130413</v>
+        <v>2943.587502130415</v>
       </c>
       <c r="S32" t="n">
-        <v>2907.66253942941</v>
+        <v>2907.662539429412</v>
       </c>
       <c r="T32" t="n">
-        <v>2825.343575642789</v>
+        <v>2825.343575642791</v>
       </c>
       <c r="U32" t="n">
-        <v>2710.335692250584</v>
+        <v>2710.335692250585</v>
       </c>
       <c r="V32" t="n">
-        <v>2513.193614526752</v>
+        <v>2513.193614526753</v>
       </c>
       <c r="W32" t="n">
-        <v>2290.495880764579</v>
+        <v>2290.49588076458</v>
       </c>
       <c r="X32" t="n">
-        <v>2048.302936666299</v>
+        <v>2048.3029366663</v>
       </c>
       <c r="Y32" t="n">
         <v>1794.598277622364</v>
@@ -6762,22 +6762,22 @@
         <v>625.5028206241204</v>
       </c>
       <c r="E33" t="n">
-        <v>478.4748106809916</v>
+        <v>478.4748106809917</v>
       </c>
       <c r="F33" t="n">
         <v>343.781012630866</v>
       </c>
       <c r="G33" t="n">
-        <v>215.3217518248302</v>
+        <v>215.3217518248303</v>
       </c>
       <c r="H33" t="n">
         <v>117.9841779409875</v>
       </c>
       <c r="I33" t="n">
-        <v>58.87175004260826</v>
+        <v>58.87175004260831</v>
       </c>
       <c r="J33" t="n">
-        <v>144.0568936116649</v>
+        <v>144.056893611665</v>
       </c>
       <c r="K33" t="n">
         <v>416.1584910570767</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.0859108913286</v>
+        <v>173.0859108913304</v>
       </c>
       <c r="C34" t="n">
-        <v>143.3071377332355</v>
+        <v>143.307137733237</v>
       </c>
       <c r="D34" t="n">
-        <v>130.0724409412248</v>
+        <v>130.072440941226</v>
       </c>
       <c r="E34" t="n">
-        <v>117.9006230827702</v>
+        <v>117.9006230827711</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2571644887739</v>
+        <v>105.2571644887745</v>
       </c>
       <c r="G34" t="n">
-        <v>76.40033331321838</v>
+        <v>76.40033331321872</v>
       </c>
       <c r="H34" t="n">
-        <v>58.87175004260826</v>
+        <v>58.87175004260831</v>
       </c>
       <c r="I34" t="n">
-        <v>61.24574860782354</v>
+        <v>58.87175004260831</v>
       </c>
       <c r="J34" t="n">
-        <v>61.24574860782354</v>
+        <v>58.87175004260831</v>
       </c>
       <c r="K34" t="n">
-        <v>257.6071863465289</v>
+        <v>118.1787516090535</v>
       </c>
       <c r="L34" t="n">
-        <v>391.1050182696168</v>
+        <v>251.6765835321415</v>
       </c>
       <c r="M34" t="n">
-        <v>543.7772113087466</v>
+        <v>458.5021047992013</v>
       </c>
       <c r="N34" t="n">
-        <v>747.3775792187856</v>
+        <v>747.8329879685098</v>
       </c>
       <c r="O34" t="n">
-        <v>877.1109713562105</v>
+        <v>877.5663801059345</v>
       </c>
       <c r="P34" t="n">
-        <v>966.8361244963397</v>
+        <v>967.2915332460639</v>
       </c>
       <c r="Q34" t="n">
-        <v>966.8361244963397</v>
+        <v>967.2915332460639</v>
       </c>
       <c r="R34" t="n">
-        <v>967.2915332460599</v>
+        <v>967.2915332460639</v>
       </c>
       <c r="S34" t="n">
-        <v>897.3526697881316</v>
+        <v>897.3526697881354</v>
       </c>
       <c r="T34" t="n">
-        <v>804.9753575830637</v>
+        <v>804.9753575830671</v>
       </c>
       <c r="U34" t="n">
-        <v>657.6346265111011</v>
+        <v>657.6346265111042</v>
       </c>
       <c r="V34" t="n">
-        <v>536.7365184497503</v>
+        <v>536.7365184497531</v>
       </c>
       <c r="W34" t="n">
-        <v>390.4173133473759</v>
+        <v>390.4173133473785</v>
       </c>
       <c r="X34" t="n">
-        <v>299.0020456229782</v>
+        <v>299.0020456229806</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8040831954819</v>
+        <v>216.8040831954839</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1415.348338035514</v>
+        <v>1415.348338035513</v>
       </c>
       <c r="C35" t="n">
         <v>1190.940507502401</v>
       </c>
       <c r="D35" t="n">
-        <v>975.642470863706</v>
+        <v>975.6424708637055</v>
       </c>
       <c r="E35" t="n">
-        <v>738.3826791038935</v>
+        <v>738.3826791038932</v>
       </c>
       <c r="F35" t="n">
-        <v>481.7574165481444</v>
+        <v>481.7574165481446</v>
       </c>
       <c r="G35" t="n">
         <v>223.6825645560913</v>
@@ -6965,10 +6965,10 @@
         <v>2658.797820703373</v>
       </c>
       <c r="T35" t="n">
-        <v>2594.167588670606</v>
+        <v>2594.167588670607</v>
       </c>
       <c r="U35" t="n">
-        <v>2496.848437032255</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V35" t="n">
         <v>2317.395091062278</v>
@@ -7017,7 +7017,7 @@
         <v>138.7258246020671</v>
       </c>
       <c r="K36" t="n">
-        <v>410.8274220474789</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L36" t="n">
         <v>833.9450755953267</v>
@@ -7154,13 +7154,13 @@
         <v>1190.940507502402</v>
       </c>
       <c r="D38" t="n">
-        <v>975.6424708637062</v>
+        <v>975.6424708637064</v>
       </c>
       <c r="E38" t="n">
-        <v>738.3826791038937</v>
+        <v>738.382679103894</v>
       </c>
       <c r="F38" t="n">
-        <v>481.7574165481446</v>
+        <v>481.7574165481451</v>
       </c>
       <c r="G38" t="n">
         <v>223.6825645560913</v>
@@ -7187,7 +7187,7 @@
         <v>1842.161942585358</v>
       </c>
       <c r="O38" t="n">
-        <v>2230.263933750937</v>
+        <v>2230.263933750938</v>
       </c>
       <c r="P38" t="n">
         <v>2529.342544292799</v>
@@ -7217,7 +7217,7 @@
         <v>1887.881876709534</v>
       </c>
       <c r="Y38" t="n">
-        <v>1651.865949419452</v>
+        <v>1651.865949419453</v>
       </c>
     </row>
     <row r="39">
@@ -7254,7 +7254,7 @@
         <v>138.7258246020671</v>
       </c>
       <c r="K39" t="n">
-        <v>410.8274220474789</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L39" t="n">
         <v>833.9450755953267</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.0569315123779</v>
+        <v>76.79882185895077</v>
       </c>
       <c r="C40" t="n">
-        <v>105.9668901081388</v>
+        <v>64.70878045471179</v>
       </c>
       <c r="D40" t="n">
-        <v>64.70878045471184</v>
+        <v>64.70878045471179</v>
       </c>
       <c r="E40" t="n">
-        <v>64.70878045471184</v>
+        <v>64.70878045471179</v>
       </c>
       <c r="F40" t="n">
-        <v>64.70878045471184</v>
+        <v>64.70878045471179</v>
       </c>
       <c r="G40" t="n">
         <v>53.54068103301045</v>
@@ -7357,25 +7357,25 @@
         <v>770.7526998362764</v>
       </c>
       <c r="S40" t="n">
-        <v>718.5025681322022</v>
+        <v>677.2444584787747</v>
       </c>
       <c r="T40" t="n">
-        <v>643.8139876809884</v>
+        <v>602.5558780275609</v>
       </c>
       <c r="U40" t="n">
-        <v>514.1619883628798</v>
+        <v>472.9038787094524</v>
       </c>
       <c r="V40" t="n">
-        <v>410.9526120553831</v>
+        <v>369.6945024019558</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3221387068629</v>
+        <v>241.0640290534356</v>
       </c>
       <c r="X40" t="n">
-        <v>208.5956027363193</v>
+        <v>167.3374930828921</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.086372062677</v>
+        <v>102.8282624092499</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1415.348338035515</v>
+        <v>1415.348338035514</v>
       </c>
       <c r="C41" t="n">
-        <v>1190.940507502403</v>
+        <v>1190.940507502402</v>
       </c>
       <c r="D41" t="n">
-        <v>975.6424708637069</v>
+        <v>975.642470863706</v>
       </c>
       <c r="E41" t="n">
-        <v>738.3826791038944</v>
+        <v>738.3826791038935</v>
       </c>
       <c r="F41" t="n">
-        <v>481.7574165481454</v>
+        <v>481.7574165481446</v>
       </c>
       <c r="G41" t="n">
-        <v>223.6825645560913</v>
+        <v>223.6825645560914</v>
       </c>
       <c r="H41" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="I41" t="n">
-        <v>53.54068103301121</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="J41" t="n">
-        <v>167.3983317523209</v>
+        <v>167.3983317523201</v>
       </c>
       <c r="K41" t="n">
-        <v>470.27465350646</v>
+        <v>470.2746535064592</v>
       </c>
       <c r="L41" t="n">
-        <v>895.9895196980108</v>
+        <v>895.9895196980103</v>
       </c>
       <c r="M41" t="n">
-        <v>1375.828993170053</v>
+        <v>1375.828993170052</v>
       </c>
       <c r="N41" t="n">
-        <v>1842.161942585359</v>
+        <v>1842.161942585358</v>
       </c>
       <c r="O41" t="n">
         <v>2230.263933750938</v>
@@ -7442,10 +7442,10 @@
         <v>2594.167588670607</v>
       </c>
       <c r="U41" t="n">
-        <v>2496.848437032257</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V41" t="n">
-        <v>2317.395091062279</v>
+        <v>2317.395091062278</v>
       </c>
       <c r="W41" t="n">
         <v>2112.38608905396</v>
@@ -7485,28 +7485,28 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I42" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="J42" t="n">
-        <v>53.54068103301046</v>
+        <v>138.7258246020671</v>
       </c>
       <c r="K42" t="n">
-        <v>325.6422784784222</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L42" t="n">
-        <v>748.75993202627</v>
+        <v>833.9450755953267</v>
       </c>
       <c r="M42" t="n">
-        <v>1300.654791444619</v>
+        <v>1385.839935013675</v>
       </c>
       <c r="N42" t="n">
-        <v>1729.756877166614</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O42" t="n">
-        <v>2184.740904651438</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P42" t="n">
-        <v>2537.226580621403</v>
+        <v>2345.770732938111</v>
       </c>
       <c r="Q42" t="n">
         <v>2537.226580621403</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76.79882185895083</v>
+        <v>76.798821858951</v>
       </c>
       <c r="C43" t="n">
-        <v>64.70878045471181</v>
+        <v>64.7087804547119</v>
       </c>
       <c r="D43" t="n">
-        <v>64.70878045471181</v>
+        <v>64.7087804547119</v>
       </c>
       <c r="E43" t="n">
-        <v>64.70878045471181</v>
+        <v>64.7087804547119</v>
       </c>
       <c r="F43" t="n">
-        <v>64.70878045471181</v>
+        <v>64.7087804547119</v>
       </c>
       <c r="G43" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="H43" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="I43" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="J43" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="K43" t="n">
         <v>112.8476825994557</v>
@@ -7594,25 +7594,25 @@
         <v>770.7526998362764</v>
       </c>
       <c r="S43" t="n">
-        <v>677.244458478775</v>
+        <v>677.2444584787758</v>
       </c>
       <c r="T43" t="n">
-        <v>602.5558780275611</v>
+        <v>602.5558780275618</v>
       </c>
       <c r="U43" t="n">
-        <v>472.9038787094527</v>
+        <v>472.9038787094532</v>
       </c>
       <c r="V43" t="n">
-        <v>369.694502401956</v>
+        <v>369.6945024019565</v>
       </c>
       <c r="W43" t="n">
-        <v>241.0640290534357</v>
+        <v>241.0640290534362</v>
       </c>
       <c r="X43" t="n">
-        <v>167.3374930828922</v>
+        <v>167.3374930828925</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.82826240925</v>
+        <v>102.8282624092502</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>53.54068103301044</v>
       </c>
       <c r="J45" t="n">
-        <v>53.54068103301044</v>
+        <v>138.7258246020671</v>
       </c>
       <c r="K45" t="n">
-        <v>325.6422784784222</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L45" t="n">
-        <v>748.75993202627</v>
+        <v>833.9450755953267</v>
       </c>
       <c r="M45" t="n">
-        <v>1300.654791444619</v>
+        <v>1385.839935013675</v>
       </c>
       <c r="N45" t="n">
-        <v>1729.756877166614</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O45" t="n">
-        <v>2184.740904651438</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P45" t="n">
-        <v>2537.226580621403</v>
+        <v>2345.770732938111</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.226580621403</v>
@@ -7831,25 +7831,25 @@
         <v>770.7526998362764</v>
       </c>
       <c r="S46" t="n">
-        <v>677.2444584787748</v>
+        <v>718.5025681322022</v>
       </c>
       <c r="T46" t="n">
-        <v>602.555878027561</v>
+        <v>643.8139876809884</v>
       </c>
       <c r="U46" t="n">
-        <v>472.9038787094526</v>
+        <v>514.1619883628799</v>
       </c>
       <c r="V46" t="n">
-        <v>369.6945024019559</v>
+        <v>410.9526120553832</v>
       </c>
       <c r="W46" t="n">
-        <v>241.0640290534357</v>
+        <v>282.322138706863</v>
       </c>
       <c r="X46" t="n">
-        <v>167.3374930828922</v>
+        <v>208.5956027363195</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.8282624092499</v>
+        <v>144.0863720626772</v>
       </c>
     </row>
   </sheetData>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
         <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>316.6434973364323</v>
       </c>
       <c r="O8" t="n">
         <v>186.9547967801205</v>
@@ -8471,7 +8471,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1429538914291</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8538,19 +8538,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.9805746090947</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8778,10 +8778,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>184.4622374967492</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3918718280678</v>
+        <v>191.3918718280688</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578764</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236958</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406843</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>173.6633680564487</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>191.3918718280683</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10197,19 +10197,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>367.053113191087</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>80.26780024119719</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>79.71072892196565</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>77.8727463778278</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>470.8272165274103</v>
+        <v>191.3918718280688</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.71072892196564</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>77.8727463778278</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>470.8272165274103</v>
+        <v>191.3918718280688</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.71072892196564</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>283.0297939525754</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.7719315224809</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>270.1953630721313</v>
       </c>
       <c r="G11" t="n">
         <v>325.4950644345947</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>45.46598078689355</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>247.5435501905448</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>272.8436496685017</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>292.1439079012483</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.65388382506276</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>81.85387867046325</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.47524306804164</v>
+        <v>65.47524306804165</v>
       </c>
       <c r="E13" t="n">
-        <v>64.42299292382108</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>64.88991725200739</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>70.18970723159759</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.15139850047908</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>61.04470944731773</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>198.2430606650084</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>142.8740082911048</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>38.03287429782274</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>304.7719315224809</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>325.3788411523992</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.81722879112203</v>
+        <v>65.81722879112208</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.93860631794394</v>
+        <v>87.93860631794395</v>
       </c>
       <c r="T14" t="n">
         <v>133.8686673927058</v>
       </c>
       <c r="U14" t="n">
-        <v>166.2306978022341</v>
+        <v>127.6597069632367</v>
       </c>
       <c r="V14" t="n">
-        <v>247.5435501905448</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>303.5405056974471</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.47524306804165</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>42.12935516248604</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.97491489524876</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>121.6123680673</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>40.60887960471297</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>172.0620202246884</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>197.2289062953016</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>133.7488760471724</v>
       </c>
     </row>
     <row r="17">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19146.91578768261</v>
+        <v>19146.9157876826</v>
       </c>
       <c r="C2" t="n">
         <v>19146.9157876826</v>
       </c>
       <c r="D2" t="n">
-        <v>19190.60151235453</v>
+        <v>19190.60151235455</v>
       </c>
       <c r="E2" t="n">
         <v>16554.8699150379</v>
       </c>
       <c r="F2" t="n">
-        <v>16865.78426627848</v>
+        <v>16865.78426627849</v>
       </c>
       <c r="G2" t="n">
         <v>19190.60151235455</v>
@@ -26338,10 +26338,10 @@
         <v>19190.60151235455</v>
       </c>
       <c r="K2" t="n">
-        <v>19190.60151235455</v>
+        <v>19190.60151235456</v>
       </c>
       <c r="L2" t="n">
-        <v>19190.60151235458</v>
+        <v>19190.60151235456</v>
       </c>
       <c r="M2" t="n">
         <v>19190.60151235455</v>
@@ -26353,7 +26353,7 @@
         <v>19190.60151235455</v>
       </c>
       <c r="P2" t="n">
-        <v>19190.60151235456</v>
+        <v>19190.60151235455</v>
       </c>
     </row>
     <row r="3">
@@ -26372,40 +26372,40 @@
         <v>42161.62330376123</v>
       </c>
       <c r="E3" t="n">
-        <v>294456.7782311495</v>
+        <v>294456.7782311494</v>
       </c>
       <c r="F3" t="n">
-        <v>32475.03813004558</v>
+        <v>32475.03813004555</v>
       </c>
       <c r="G3" t="n">
-        <v>55907.79014421328</v>
+        <v>55907.79014421331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79698.85193905822</v>
+        <v>79698.85193905827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84000.51829319861</v>
+        <v>84000.51829319843</v>
       </c>
       <c r="M3" t="n">
-        <v>121991.1154331247</v>
+        <v>121991.1154331249</v>
       </c>
       <c r="N3" t="n">
-        <v>8225.761730126411</v>
+        <v>8225.761730126458</v>
       </c>
       <c r="O3" t="n">
-        <v>26750.5412399409</v>
+        <v>26750.54123994069</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26436,25 +26436,25 @@
         <v>255234.5973074845</v>
       </c>
       <c r="I4" t="n">
-        <v>255234.5973074846</v>
+        <v>255234.5973074845</v>
       </c>
       <c r="J4" t="n">
         <v>256290.3470368605</v>
       </c>
       <c r="K4" t="n">
-        <v>256290.3470368605</v>
+        <v>256290.3470368606</v>
       </c>
       <c r="L4" t="n">
-        <v>255564.2661754457</v>
+        <v>255564.2661754456</v>
       </c>
       <c r="M4" t="n">
+        <v>255234.5973074845</v>
+      </c>
+      <c r="N4" t="n">
         <v>255234.5973074846</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>255234.5973074845</v>
-      </c>
-      <c r="O4" t="n">
-        <v>255234.5973074846</v>
       </c>
       <c r="P4" t="n">
         <v>255234.5973074845</v>
@@ -26476,7 +26476,7 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>47955.67923004334</v>
+        <v>47955.67923004333</v>
       </c>
       <c r="F5" t="n">
         <v>50627.86933901334</v>
@@ -26488,13 +26488,13 @@
         <v>56503.00935105568</v>
       </c>
       <c r="I5" t="n">
-        <v>56503.00935105571</v>
+        <v>56503.00935105568</v>
       </c>
       <c r="J5" t="n">
         <v>64382.60657227097</v>
       </c>
       <c r="K5" t="n">
-        <v>64382.60657227095</v>
+        <v>64382.60657227098</v>
       </c>
       <c r="L5" t="n">
         <v>59082.41854843342</v>
@@ -26503,10 +26503,10 @@
         <v>56503.00935105568</v>
       </c>
       <c r="N5" t="n">
+        <v>56503.00935105569</v>
+      </c>
+      <c r="O5" t="n">
         <v>56503.00935105568</v>
-      </c>
-      <c r="O5" t="n">
-        <v>56503.00935105569</v>
       </c>
       <c r="P5" t="n">
         <v>56503.00935105568</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393401.8455736666</v>
+        <v>-393406.2141461339</v>
       </c>
       <c r="C6" t="n">
-        <v>-393401.8455736667</v>
+        <v>-393406.2141461339</v>
       </c>
       <c r="D6" t="n">
         <v>-420609.3474806829</v>
       </c>
       <c r="E6" t="n">
-        <v>-529626.9658771283</v>
+        <v>-529890.5390368599</v>
       </c>
       <c r="F6" t="n">
-        <v>-268587.5614752535</v>
+        <v>-268820.043199861</v>
       </c>
       <c r="G6" t="n">
         <v>-348454.7952903989</v>
@@ -26540,28 +26540,28 @@
         <v>-292547.0051461856</v>
       </c>
       <c r="I6" t="n">
-        <v>-292547.0051461859</v>
+        <v>-292547.0051461857</v>
       </c>
       <c r="J6" t="n">
         <v>-381181.2040358352</v>
       </c>
       <c r="K6" t="n">
-        <v>-301482.3520967769</v>
+        <v>-301482.352096777</v>
       </c>
       <c r="L6" t="n">
-        <v>-379456.6015047231</v>
+        <v>-379456.6015047228</v>
       </c>
       <c r="M6" t="n">
-        <v>-414538.1205793104</v>
+        <v>-414538.1205793105</v>
       </c>
       <c r="N6" t="n">
-        <v>-300772.7668763121</v>
+        <v>-300772.7668763122</v>
       </c>
       <c r="O6" t="n">
-        <v>-319297.5463861267</v>
+        <v>-319297.5463861263</v>
       </c>
       <c r="P6" t="n">
-        <v>-292547.0051461856</v>
+        <v>-292547.0051461858</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="F2" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="G2" t="n">
         <v>155.9506688527399</v>
       </c>
       <c r="H2" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="J2" t="n">
         <v>103.3229142301926</v>
@@ -26713,7 +26713,7 @@
         <v>103.3229142301926</v>
       </c>
       <c r="L2" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="M2" t="n">
         <v>155.9506688527399</v>
@@ -26722,7 +26722,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="O2" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="P2" t="n">
         <v>155.9506688527399</v>
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259979</v>
       </c>
       <c r="G3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259979</v>
       </c>
       <c r="H3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259979</v>
       </c>
       <c r="I3" t="n">
         <v>123.920870925998</v>
@@ -26802,22 +26802,22 @@
         <v>669.2585129126305</v>
       </c>
       <c r="G4" t="n">
-        <v>669.2585129126306</v>
+        <v>669.2585129126305</v>
       </c>
       <c r="H4" t="n">
-        <v>669.2585129126306</v>
+        <v>669.2585129126305</v>
       </c>
       <c r="I4" t="n">
-        <v>669.2585129126311</v>
+        <v>669.2585129126305</v>
       </c>
       <c r="J4" t="n">
         <v>871.6262748300354</v>
       </c>
       <c r="K4" t="n">
-        <v>871.6262748300351</v>
+        <v>871.6262748300356</v>
       </c>
       <c r="L4" t="n">
-        <v>735.8968755326033</v>
+        <v>735.8968755326039</v>
       </c>
       <c r="M4" t="n">
         <v>669.2585129126305</v>
@@ -26826,7 +26826,7 @@
         <v>669.2585129126306</v>
       </c>
       <c r="O4" t="n">
-        <v>669.2585129126307</v>
+        <v>669.2585129126306</v>
       </c>
       <c r="P4" t="n">
         <v>669.2585129126305</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>69.8847376802666</v>
+        <v>69.88473768026664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.4381765499261</v>
+        <v>33.43817654992597</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.0006478664983</v>
+        <v>105.000647866498</v>
       </c>
       <c r="M2" t="n">
-        <v>17.51184443631553</v>
+        <v>17.51184443631587</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>33.43817654992613</v>
+        <v>33.43817654992586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.0103294798887</v>
       </c>
       <c r="F3" t="n">
-        <v>28.91054144610928</v>
+        <v>28.91054144610924</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>202.3677619174043</v>
+        <v>202.3677619174049</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.3062064977781</v>
+        <v>433.3062064977776</v>
       </c>
       <c r="N4" t="n">
         <v>33.58454449744795</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>69.8847376802666</v>
+        <v>69.88473768026664</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.4381765499261</v>
+        <v>33.43817654992597</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3663258276169</v>
+        <v>259.5549490068021</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H8" t="n">
         <v>193.763662361232</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>280.6120096358289</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>38.5744501935947</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>174.2596738818111</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>120.8191931849874</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>149.448676684148</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W10" t="n">
         <v>147.5654381703431</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="C11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="D11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="E11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="F11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="G11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="H11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="I11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="T11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="U11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="V11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="W11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="X11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="C13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="D13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="E13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="F13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="G13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="H13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="I13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="J13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="K13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="L13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="M13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="N13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="O13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="P13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="R13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="S13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="T13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="U13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="V13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="W13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="X13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="C14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="D14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="E14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="F14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="G14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="H14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="I14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="T14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="U14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="V14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="W14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="X14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="C16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="D16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="E16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="F16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="G16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="H16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="I16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="J16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="K16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="L16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="M16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="N16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="O16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="P16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="R16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="S16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="T16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="U16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="V16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="W16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="X16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247324</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S17" t="n">
         <v>155.9506688527399</v>
@@ -28743,7 +28743,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J19" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302217</v>
       </c>
       <c r="R19" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S19" t="n">
-        <v>115.1051402958471</v>
+        <v>115.1051402958469</v>
       </c>
       <c r="T19" t="n">
         <v>155.9506688527399</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="E20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="F20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="G20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I20" t="n">
         <v>151.8831599635953</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H22" t="n">
         <v>155.7921218543283</v>
@@ -28980,7 +28980,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J22" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302217</v>
       </c>
       <c r="R22" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S22" t="n">
-        <v>155.9506688527398</v>
+        <v>115.1051402958469</v>
       </c>
       <c r="T22" t="n">
-        <v>115.1051402958475</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="E23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="F23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="G23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I23" t="n">
         <v>151.8831599635953</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y23" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H25" t="n">
         <v>155.7921218543283</v>
@@ -29217,7 +29217,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J25" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302216</v>
       </c>
       <c r="R25" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S25" t="n">
-        <v>115.1051402958476</v>
+        <v>115.1051402958467</v>
       </c>
       <c r="T25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.9506688527398</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="26">
@@ -29305,7 +29305,7 @@
         <v>103.3229142301926</v>
       </c>
       <c r="M26" t="n">
-        <v>33.14971738068886</v>
+        <v>103.3229142301926</v>
       </c>
       <c r="N26" t="n">
         <v>103.3229142301926</v>
@@ -29314,7 +29314,7 @@
         <v>103.3229142301926</v>
       </c>
       <c r="P26" t="n">
-        <v>103.3229142301926</v>
+        <v>33.14971738068931</v>
       </c>
       <c r="Q26" t="n">
         <v>103.3229142301926</v>
@@ -29457,10 +29457,10 @@
         <v>103.3229142301926</v>
       </c>
       <c r="K28" t="n">
-        <v>103.3229142301925</v>
+        <v>103.3229142301926</v>
       </c>
       <c r="L28" t="n">
-        <v>103.3229142301926</v>
+        <v>103.322914230193</v>
       </c>
       <c r="M28" t="n">
         <v>103.3229142301926</v>
@@ -29545,7 +29545,7 @@
         <v>103.3229142301926</v>
       </c>
       <c r="N29" t="n">
-        <v>33.14971738068743</v>
+        <v>33.14971738069022</v>
       </c>
       <c r="O29" t="n">
         <v>103.3229142301926</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="C32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="D32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="E32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="F32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="G32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="H32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="I32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="J32" t="n">
-        <v>45.42180133288292</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>45.42180133288537</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="R32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="S32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="T32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="U32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="V32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="W32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="X32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
     </row>
     <row r="33">
@@ -29904,43 +29904,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="D34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="E34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="F34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="I34" t="n">
-        <v>138.4388244164243</v>
+        <v>136.040846067722</v>
       </c>
       <c r="J34" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K34" t="n">
-        <v>138.4388244164243</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>54.70033154336363</v>
       </c>
       <c r="N34" t="n">
-        <v>51.84234435655583</v>
+        <v>138.438824416424</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302216</v>
       </c>
       <c r="R34" t="n">
-        <v>138.4388244164243</v>
+        <v>137.9788155783232</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="V34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="W34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.4388244164243</v>
+        <v>138.438824416424</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S35" t="n">
         <v>155.9506688527399</v>
@@ -30165,7 +30165,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J37" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302216</v>
       </c>
       <c r="R37" t="n">
         <v>137.9788155783232</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S38" t="n">
         <v>155.9506688527399</v>
@@ -30384,7 +30384,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="D40" t="n">
-        <v>110.6956456836222</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30402,7 +30402,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J40" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302216</v>
       </c>
       <c r="R40" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S40" t="n">
-        <v>155.9506688527399</v>
+        <v>115.1051402958466</v>
       </c>
       <c r="T40" t="n">
         <v>155.9506688527399</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="C41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="D41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="E41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="F41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="G41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="H41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="I41" t="n">
         <v>151.8831599635953</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="T41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="U41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="V41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="W41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="X41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="Y41" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="C43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="H43" t="n">
         <v>155.7921218543283</v>
@@ -30639,7 +30639,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J43" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302216</v>
       </c>
       <c r="R43" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S43" t="n">
-        <v>115.1051402958469</v>
+        <v>115.1051402958476</v>
       </c>
       <c r="T43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="U43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="V43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="W43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="X43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.9506688527399</v>
+        <v>155.9506688527398</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159676</v>
       </c>
       <c r="S44" t="n">
         <v>155.9506688527399</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.9506688527399</v>
+        <v>115.1051402958469</v>
       </c>
       <c r="C46" t="n">
         <v>155.9506688527399</v>
@@ -30876,7 +30876,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J46" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174792</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302216</v>
       </c>
       <c r="R46" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S46" t="n">
-        <v>115.1051402958467</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T46" t="n">
         <v>155.9506688527399</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859844</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630635</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850208</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757804</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712765</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410147</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911395</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736621</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365235</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689871</v>
       </c>
       <c r="J12" t="n">
         <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.999955664727</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653933</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309359</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712757</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806976</v>
       </c>
       <c r="Q12" t="n">
         <v>26.08660970927058</v>
@@ -31865,13 +31865,13 @@
         <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880456</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133744</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302818</v>
       </c>
       <c r="J13" t="n">
         <v>12.11303823549335</v>
@@ -31923,34 +31923,34 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267721</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492522</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795562</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106176</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.009345278309497258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813983</v>
       </c>
       <c r="H14" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073872</v>
       </c>
       <c r="I14" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969663</v>
       </c>
       <c r="J14" t="n">
-        <v>42.28192570353939</v>
+        <v>42.28192570353937</v>
       </c>
       <c r="K14" t="n">
-        <v>63.36964617106701</v>
+        <v>63.36964617106698</v>
       </c>
       <c r="L14" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263084</v>
       </c>
       <c r="M14" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692315</v>
       </c>
       <c r="N14" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443468</v>
       </c>
       <c r="O14" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711653</v>
       </c>
       <c r="P14" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616949</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049189</v>
       </c>
       <c r="R14" t="n">
-        <v>31.29344485750843</v>
+        <v>31.29344485750842</v>
       </c>
       <c r="S14" t="n">
         <v>11.35214812553238</v>
       </c>
       <c r="T14" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119822</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851186</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729012</v>
       </c>
       <c r="H15" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764599</v>
       </c>
       <c r="I15" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444187</v>
       </c>
       <c r="J15" t="n">
-        <v>25.1828252888389</v>
+        <v>25.18282528883888</v>
       </c>
       <c r="K15" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002326</v>
       </c>
       <c r="L15" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690121</v>
       </c>
       <c r="M15" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466886</v>
       </c>
       <c r="N15" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453539</v>
       </c>
       <c r="O15" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360952</v>
       </c>
       <c r="P15" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562357</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.02446252292685</v>
+        <v>34.02446252292683</v>
       </c>
       <c r="R15" t="n">
-        <v>16.54928159272102</v>
+        <v>16.54928159272101</v>
       </c>
       <c r="S15" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939631</v>
       </c>
       <c r="T15" t="n">
         <v>1.074370569632001</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01753597230084878</v>
+        <v>0.01753597230084877</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042585</v>
       </c>
       <c r="H16" t="n">
-        <v>1.986796914190592</v>
+        <v>1.986796914190591</v>
       </c>
       <c r="I16" t="n">
-        <v>6.720167885626254</v>
+        <v>6.72016788562625</v>
       </c>
       <c r="J16" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K16" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384021</v>
       </c>
       <c r="L16" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M16" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831117</v>
       </c>
       <c r="N16" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O16" t="n">
-        <v>31.58560165831832</v>
+        <v>31.5856016583183</v>
       </c>
       <c r="P16" t="n">
-        <v>27.02693879999142</v>
+        <v>27.0269387999914</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982569</v>
       </c>
       <c r="R16" t="n">
         <v>10.04774799344239</v>
       </c>
       <c r="S16" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576032</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363771</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386866</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813983</v>
       </c>
       <c r="H17" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073872</v>
       </c>
       <c r="I17" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969663</v>
       </c>
       <c r="J17" t="n">
-        <v>42.28192570353939</v>
+        <v>42.28192570353937</v>
       </c>
       <c r="K17" t="n">
-        <v>63.36964617106701</v>
+        <v>63.36964617106698</v>
       </c>
       <c r="L17" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263084</v>
       </c>
       <c r="M17" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692315</v>
       </c>
       <c r="N17" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443468</v>
       </c>
       <c r="O17" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711653</v>
       </c>
       <c r="P17" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616949</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049189</v>
       </c>
       <c r="R17" t="n">
-        <v>31.29344485750843</v>
+        <v>31.29344485750842</v>
       </c>
       <c r="S17" t="n">
         <v>11.35214812553238</v>
       </c>
       <c r="T17" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119822</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851186</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729012</v>
       </c>
       <c r="H18" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764599</v>
       </c>
       <c r="I18" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444187</v>
       </c>
       <c r="J18" t="n">
-        <v>25.1828252888389</v>
+        <v>25.18282528883888</v>
       </c>
       <c r="K18" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002326</v>
       </c>
       <c r="L18" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690121</v>
       </c>
       <c r="M18" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466886</v>
       </c>
       <c r="N18" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453539</v>
       </c>
       <c r="O18" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360952</v>
       </c>
       <c r="P18" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562357</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.02446252292685</v>
+        <v>34.02446252292683</v>
       </c>
       <c r="R18" t="n">
-        <v>16.54928159272102</v>
+        <v>16.54928159272101</v>
       </c>
       <c r="S18" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939631</v>
       </c>
       <c r="T18" t="n">
         <v>1.074370569632001</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01753597230084878</v>
+        <v>0.01753597230084877</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042585</v>
       </c>
       <c r="H19" t="n">
-        <v>1.986796914190592</v>
+        <v>1.986796914190591</v>
       </c>
       <c r="I19" t="n">
-        <v>6.720167885626254</v>
+        <v>6.72016788562625</v>
       </c>
       <c r="J19" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K19" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384021</v>
       </c>
       <c r="L19" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M19" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831117</v>
       </c>
       <c r="N19" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O19" t="n">
-        <v>31.58560165831832</v>
+        <v>31.5856016583183</v>
       </c>
       <c r="P19" t="n">
-        <v>27.02693879999142</v>
+        <v>27.0269387999914</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982569</v>
       </c>
       <c r="R19" t="n">
         <v>10.04774799344239</v>
       </c>
       <c r="S19" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576032</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363771</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386866</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813983</v>
       </c>
       <c r="H20" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073872</v>
       </c>
       <c r="I20" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969663</v>
       </c>
       <c r="J20" t="n">
-        <v>42.28192570353939</v>
+        <v>42.28192570353937</v>
       </c>
       <c r="K20" t="n">
-        <v>63.36964617106701</v>
+        <v>63.36964617106698</v>
       </c>
       <c r="L20" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263084</v>
       </c>
       <c r="M20" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692315</v>
       </c>
       <c r="N20" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443468</v>
       </c>
       <c r="O20" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711653</v>
       </c>
       <c r="P20" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616949</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049189</v>
       </c>
       <c r="R20" t="n">
-        <v>31.29344485750843</v>
+        <v>31.29344485750842</v>
       </c>
       <c r="S20" t="n">
         <v>11.35214812553238</v>
       </c>
       <c r="T20" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119822</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851186</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729012</v>
       </c>
       <c r="H21" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764599</v>
       </c>
       <c r="I21" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444187</v>
       </c>
       <c r="J21" t="n">
-        <v>25.1828252888389</v>
+        <v>25.18282528883888</v>
       </c>
       <c r="K21" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002326</v>
       </c>
       <c r="L21" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690121</v>
       </c>
       <c r="M21" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466886</v>
       </c>
       <c r="N21" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453539</v>
       </c>
       <c r="O21" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360952</v>
       </c>
       <c r="P21" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562357</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.02446252292685</v>
+        <v>34.02446252292683</v>
       </c>
       <c r="R21" t="n">
-        <v>16.54928159272102</v>
+        <v>16.54928159272101</v>
       </c>
       <c r="S21" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939631</v>
       </c>
       <c r="T21" t="n">
         <v>1.074370569632001</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01753597230084878</v>
+        <v>0.01753597230084877</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042585</v>
       </c>
       <c r="H22" t="n">
-        <v>1.986796914190592</v>
+        <v>1.986796914190591</v>
       </c>
       <c r="I22" t="n">
-        <v>6.720167885626254</v>
+        <v>6.72016788562625</v>
       </c>
       <c r="J22" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K22" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384021</v>
       </c>
       <c r="L22" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M22" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831117</v>
       </c>
       <c r="N22" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O22" t="n">
-        <v>31.58560165831832</v>
+        <v>31.5856016583183</v>
       </c>
       <c r="P22" t="n">
-        <v>27.02693879999142</v>
+        <v>27.0269387999914</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982569</v>
       </c>
       <c r="R22" t="n">
         <v>10.04774799344239</v>
       </c>
       <c r="S22" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576032</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363771</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386866</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H23" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I23" t="n">
         <v>19.20586683969664</v>
@@ -32710,25 +32710,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K23" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L23" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M23" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N23" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O23" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P23" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R23" t="n">
         <v>31.29344485750843</v>
@@ -32737,10 +32737,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T23" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H24" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I24" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J24" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K24" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L24" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M24" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N24" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O24" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P24" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q24" t="n">
         <v>34.02446252292685</v>
@@ -32813,7 +32813,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S24" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T24" t="n">
         <v>1.074370569632001</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H25" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I25" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J25" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K25" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L25" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M25" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N25" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O25" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P25" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q25" t="n">
         <v>18.7120515098257</v>
@@ -32892,10 +32892,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S25" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U25" t="n">
         <v>0.01218893812386867</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H26" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I26" t="n">
         <v>19.20586683969664</v>
@@ -32947,25 +32947,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K26" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L26" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M26" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N26" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O26" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P26" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R26" t="n">
         <v>31.29344485750843</v>
@@ -32974,10 +32974,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T26" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H27" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I27" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J27" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K27" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L27" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M27" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N27" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O27" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P27" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q27" t="n">
         <v>34.02446252292685</v>
@@ -33050,7 +33050,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S27" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T27" t="n">
         <v>1.074370569632001</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H28" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I28" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J28" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K28" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L28" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M28" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N28" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O28" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P28" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q28" t="n">
         <v>18.7120515098257</v>
@@ -33129,10 +33129,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S28" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U28" t="n">
         <v>0.01218893812386867</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H29" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I29" t="n">
         <v>19.20586683969664</v>
@@ -33184,25 +33184,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K29" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L29" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M29" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N29" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O29" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P29" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R29" t="n">
         <v>31.29344485750843</v>
@@ -33211,10 +33211,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T29" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H30" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I30" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J30" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K30" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L30" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M30" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N30" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O30" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P30" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q30" t="n">
         <v>34.02446252292685</v>
@@ -33287,7 +33287,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S30" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T30" t="n">
         <v>1.074370569632001</v>
@@ -33330,34 +33330,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H31" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I31" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J31" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K31" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L31" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M31" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N31" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O31" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P31" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q31" t="n">
         <v>18.7120515098257</v>
@@ -33366,10 +33366,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S31" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U31" t="n">
         <v>0.01218893812386867</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H32" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I32" t="n">
         <v>19.20586683969664</v>
@@ -33421,25 +33421,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K32" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L32" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M32" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N32" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O32" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P32" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R32" t="n">
         <v>31.29344485750843</v>
@@ -33448,10 +33448,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H33" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I33" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J33" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K33" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L33" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M33" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N33" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O33" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P33" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q33" t="n">
         <v>34.02446252292685</v>
@@ -33524,7 +33524,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S33" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T33" t="n">
         <v>1.074370569632001</v>
@@ -33567,34 +33567,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H34" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I34" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J34" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K34" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L34" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M34" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N34" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O34" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P34" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q34" t="n">
         <v>18.7120515098257</v>
@@ -33603,10 +33603,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S34" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U34" t="n">
         <v>0.01218893812386867</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H35" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I35" t="n">
         <v>19.20586683969664</v>
@@ -33658,25 +33658,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K35" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L35" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M35" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N35" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O35" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P35" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R35" t="n">
         <v>31.29344485750843</v>
@@ -33685,10 +33685,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T35" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H36" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I36" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J36" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K36" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L36" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M36" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N36" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O36" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P36" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q36" t="n">
         <v>34.02446252292685</v>
@@ -33761,7 +33761,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S36" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T36" t="n">
         <v>1.074370569632001</v>
@@ -33804,34 +33804,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H37" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I37" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J37" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K37" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L37" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M37" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N37" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O37" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P37" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q37" t="n">
         <v>18.7120515098257</v>
@@ -33840,10 +33840,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S37" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U37" t="n">
         <v>0.01218893812386867</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H38" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I38" t="n">
         <v>19.20586683969664</v>
@@ -33895,25 +33895,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K38" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L38" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M38" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N38" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O38" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P38" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R38" t="n">
         <v>31.29344485750843</v>
@@ -33922,10 +33922,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T38" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H39" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I39" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J39" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K39" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L39" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M39" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N39" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O39" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P39" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q39" t="n">
         <v>34.02446252292685</v>
@@ -33998,7 +33998,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S39" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T39" t="n">
         <v>1.074370569632001</v>
@@ -34041,34 +34041,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H40" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I40" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J40" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K40" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L40" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M40" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N40" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O40" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P40" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q40" t="n">
         <v>18.7120515098257</v>
@@ -34077,10 +34077,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S40" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U40" t="n">
         <v>0.01218893812386867</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H41" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I41" t="n">
         <v>19.20586683969664</v>
@@ -34132,25 +34132,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K41" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L41" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M41" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N41" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O41" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P41" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R41" t="n">
         <v>31.29344485750843</v>
@@ -34159,10 +34159,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T41" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H42" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I42" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J42" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K42" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L42" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M42" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N42" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O42" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P42" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q42" t="n">
         <v>34.02446252292685</v>
@@ -34235,7 +34235,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S42" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T42" t="n">
         <v>1.074370569632001</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H43" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I43" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J43" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K43" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L43" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M43" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N43" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O43" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P43" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q43" t="n">
         <v>18.7120515098257</v>
@@ -34314,10 +34314,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S43" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U43" t="n">
         <v>0.01218893812386867</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813985</v>
       </c>
       <c r="H44" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073874</v>
       </c>
       <c r="I44" t="n">
         <v>19.20586683969664</v>
@@ -34369,25 +34369,25 @@
         <v>42.28192570353939</v>
       </c>
       <c r="K44" t="n">
-        <v>63.36964617106701</v>
+        <v>63.369646171067</v>
       </c>
       <c r="L44" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263087</v>
       </c>
       <c r="M44" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692318</v>
       </c>
       <c r="N44" t="n">
-        <v>88.89049568443473</v>
+        <v>88.89049568443471</v>
       </c>
       <c r="O44" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711655</v>
       </c>
       <c r="P44" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616952</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049191</v>
       </c>
       <c r="R44" t="n">
         <v>31.29344485750843</v>
@@ -34396,10 +34396,10 @@
         <v>11.35214812553238</v>
       </c>
       <c r="T44" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119823</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851187</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729013</v>
       </c>
       <c r="H45" t="n">
-        <v>2.574280733764601</v>
+        <v>2.5742807337646</v>
       </c>
       <c r="I45" t="n">
-        <v>9.177158837444193</v>
+        <v>9.177158837444191</v>
       </c>
       <c r="J45" t="n">
         <v>25.1828252888389</v>
       </c>
       <c r="K45" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002328</v>
       </c>
       <c r="L45" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690123</v>
       </c>
       <c r="M45" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466889</v>
       </c>
       <c r="N45" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453542</v>
       </c>
       <c r="O45" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360954</v>
       </c>
       <c r="P45" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562359</v>
       </c>
       <c r="Q45" t="n">
         <v>34.02446252292685</v>
@@ -34472,7 +34472,7 @@
         <v>16.54928159272102</v>
       </c>
       <c r="S45" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939633</v>
       </c>
       <c r="T45" t="n">
         <v>1.074370569632001</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042586</v>
       </c>
       <c r="H46" t="n">
         <v>1.986796914190592</v>
       </c>
       <c r="I46" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626252</v>
       </c>
       <c r="J46" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822108</v>
       </c>
       <c r="K46" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384022</v>
       </c>
       <c r="L46" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629132</v>
       </c>
       <c r="M46" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831119</v>
       </c>
       <c r="N46" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651352</v>
       </c>
       <c r="O46" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831831</v>
       </c>
       <c r="P46" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999141</v>
       </c>
       <c r="Q46" t="n">
         <v>18.7120515098257</v>
@@ -34551,10 +34551,10 @@
         <v>10.04774799344239</v>
       </c>
       <c r="S46" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576033</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363774</v>
       </c>
       <c r="U46" t="n">
         <v>0.01218893812386867</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>57.51958086843889</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="P9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>130.2453831642022</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406509</v>
+        <v>464.2785454406508</v>
       </c>
       <c r="N11" t="n">
         <v>450.3053724474507</v>
@@ -35498,10 +35498,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457648</v>
+        <v>117.2256694827656</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.72230320799761</v>
+        <v>38.72230320799759</v>
       </c>
       <c r="K13" t="n">
         <v>139.9149979561907</v>
@@ -35577,7 +35577,7 @@
         <v>232.1080632124336</v>
       </c>
       <c r="N13" t="n">
-        <v>231.9026364895662</v>
+        <v>231.9026364895661</v>
       </c>
       <c r="O13" t="n">
         <v>209.7408911486754</v>
@@ -35586,7 +35586,7 @@
         <v>170.3920572957195</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.2605229910886</v>
+        <v>62.26052299108858</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>430.0150163551018</v>
       </c>
       <c r="M14" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404463</v>
       </c>
       <c r="N14" t="n">
         <v>471.0433832477839</v>
@@ -35662,10 +35662,10 @@
         <v>392.022213298565</v>
       </c>
       <c r="P14" t="n">
-        <v>302.0996066079405</v>
+        <v>302.0996066079404</v>
       </c>
       <c r="Q14" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653777</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.04559956470369</v>
+        <v>86.04559956470368</v>
       </c>
       <c r="K15" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L15" t="n">
         <v>427.3915692402504</v>
@@ -35735,7 +35735,7 @@
         <v>557.4695549680289</v>
       </c>
       <c r="N15" t="n">
-        <v>154.001105524895</v>
+        <v>154.0011055248959</v>
       </c>
       <c r="O15" t="n">
         <v>459.5798257422468</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.40816027072535</v>
+        <v>42.40816027072532</v>
       </c>
       <c r="K16" t="n">
-        <v>145.9719933608018</v>
+        <v>145.9719933608017</v>
       </c>
       <c r="L16" t="n">
         <v>220.9122260442792</v>
       </c>
       <c r="M16" t="n">
-        <v>240.2802675756347</v>
+        <v>240.2802675756346</v>
       </c>
       <c r="N16" t="n">
         <v>239.8805240987851</v>
@@ -35820,10 +35820,10 @@
         <v>217.1097616143165</v>
       </c>
       <c r="P16" t="n">
-        <v>176.6973989907857</v>
+        <v>176.6973989907856</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.6260147494511</v>
+        <v>66.62601474945107</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>430.0150163551018</v>
       </c>
       <c r="M17" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404463</v>
       </c>
       <c r="N17" t="n">
         <v>471.0433832477839</v>
@@ -35899,10 +35899,10 @@
         <v>392.022213298565</v>
       </c>
       <c r="P17" t="n">
-        <v>302.0996066079405</v>
+        <v>302.0996066079404</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.1833407653781</v>
+        <v>149.1833407653777</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.04559956470369</v>
+        <v>86.04559956470368</v>
       </c>
       <c r="K18" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L18" t="n">
         <v>427.3915692402504</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832851</v>
       </c>
       <c r="L19" t="n">
         <v>134.846294871806</v>
@@ -36054,10 +36054,10 @@
         <v>153.8145929263119</v>
       </c>
       <c r="O19" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P19" t="n">
-        <v>90.63146781831242</v>
+        <v>90.6314678183124</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>115.0077279993027</v>
+        <v>115.0077279993025</v>
       </c>
       <c r="K20" t="n">
         <v>305.9356785395344</v>
@@ -36127,7 +36127,7 @@
         <v>430.0150163551018</v>
       </c>
       <c r="M20" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404463</v>
       </c>
       <c r="N20" t="n">
         <v>471.0433832477839</v>
@@ -36136,10 +36136,10 @@
         <v>392.022213298565</v>
       </c>
       <c r="P20" t="n">
-        <v>302.0996066079405</v>
+        <v>302.0996066079404</v>
       </c>
       <c r="Q20" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653777</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.04559956470369</v>
+        <v>86.04559956470368</v>
       </c>
       <c r="K21" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L21" t="n">
         <v>427.3915692402504</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832851</v>
       </c>
       <c r="L22" t="n">
         <v>134.846294871806</v>
@@ -36291,10 +36291,10 @@
         <v>153.8145929263119</v>
       </c>
       <c r="O22" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P22" t="n">
-        <v>90.63146781831242</v>
+        <v>90.6314678183124</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>430.0150163551018</v>
       </c>
       <c r="M23" t="n">
-        <v>484.6863368404484</v>
+        <v>484.6863368404464</v>
       </c>
       <c r="N23" t="n">
         <v>471.0433832477839</v>
@@ -36437,7 +36437,7 @@
         <v>86.04559956470369</v>
       </c>
       <c r="K24" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L24" t="n">
         <v>427.3915692402504</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832852</v>
       </c>
       <c r="L25" t="n">
         <v>134.846294871806</v>
@@ -36528,7 +36528,7 @@
         <v>153.8145929263119</v>
       </c>
       <c r="O25" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P25" t="n">
         <v>90.63146781831242</v>
@@ -36595,13 +36595,13 @@
         <v>218.3306422294953</v>
       </c>
       <c r="K26" t="n">
-        <v>409.2585927697271</v>
+        <v>409.258592769727</v>
       </c>
       <c r="L26" t="n">
         <v>533.3379305852944</v>
       </c>
       <c r="M26" t="n">
-        <v>517.8360542211352</v>
+        <v>588.009251070639</v>
       </c>
       <c r="N26" t="n">
         <v>574.3662974779766</v>
@@ -36610,13 +36610,13 @@
         <v>495.3451275287576</v>
       </c>
       <c r="P26" t="n">
-        <v>405.4225208381331</v>
+        <v>335.2493239886298</v>
       </c>
       <c r="Q26" t="n">
         <v>252.5062549955704</v>
       </c>
       <c r="R26" t="n">
-        <v>44.88445544859589</v>
+        <v>44.88445544859585</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>86.04559956470369</v>
       </c>
       <c r="K27" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L27" t="n">
         <v>427.3915692402504</v>
       </c>
       <c r="M27" t="n">
-        <v>125.7163401494777</v>
+        <v>557.4695549680289</v>
       </c>
       <c r="N27" t="n">
-        <v>585.7543203434466</v>
+        <v>154.0011055248954</v>
       </c>
       <c r="O27" t="n">
         <v>459.5798257422468</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.66514332844473</v>
+        <v>59.66514332844469</v>
       </c>
       <c r="K28" t="n">
-        <v>163.228976418521</v>
+        <v>163.2289764185211</v>
       </c>
       <c r="L28" t="n">
-        <v>238.1692091019986</v>
+        <v>238.1692091019989</v>
       </c>
       <c r="M28" t="n">
         <v>257.5372506333541</v>
@@ -36765,13 +36765,13 @@
         <v>257.1375071565045</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3667446720359</v>
+        <v>234.3667446720358</v>
       </c>
       <c r="P28" t="n">
-        <v>193.9543820485051</v>
+        <v>193.954382048505</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.88299780717048</v>
+        <v>83.88299780717045</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>218.3306422294953</v>
       </c>
       <c r="K29" t="n">
-        <v>409.2585927697271</v>
+        <v>409.258592769727</v>
       </c>
       <c r="L29" t="n">
         <v>533.3379305852944</v>
@@ -36841,7 +36841,7 @@
         <v>588.009251070639</v>
       </c>
       <c r="N29" t="n">
-        <v>504.1931006284714</v>
+        <v>504.1931006284742</v>
       </c>
       <c r="O29" t="n">
         <v>495.3451275287576</v>
@@ -36853,7 +36853,7 @@
         <v>252.5062549955704</v>
       </c>
       <c r="R29" t="n">
-        <v>44.88445544859589</v>
+        <v>44.88445544859585</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>86.04559956470369</v>
       </c>
       <c r="K30" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L30" t="n">
         <v>427.3915692402504</v>
       </c>
       <c r="M30" t="n">
-        <v>557.4695549680289</v>
+        <v>319.106085284116</v>
       </c>
       <c r="N30" t="n">
         <v>585.7543203434466</v>
       </c>
       <c r="O30" t="n">
-        <v>27.82661092369564</v>
+        <v>459.5798257422468</v>
       </c>
       <c r="P30" t="n">
         <v>356.0461373433986</v>
       </c>
       <c r="Q30" t="n">
-        <v>193.3897451346382</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.66514332844473</v>
+        <v>59.66514332844469</v>
       </c>
       <c r="K31" t="n">
-        <v>163.2289764185212</v>
+        <v>163.2289764185211</v>
       </c>
       <c r="L31" t="n">
         <v>238.1692091019986</v>
       </c>
       <c r="M31" t="n">
-        <v>257.5372506333541</v>
+        <v>257.537250633354</v>
       </c>
       <c r="N31" t="n">
         <v>257.1375071565045</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3667446720359</v>
+        <v>234.3667446720358</v>
       </c>
       <c r="P31" t="n">
-        <v>193.9543820485051</v>
+        <v>193.954382048505</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.88299780717048</v>
+        <v>83.88299780717045</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>160.4295293321856</v>
+        <v>115.0077279993027</v>
       </c>
       <c r="K32" t="n">
         <v>305.9356785395344</v>
@@ -37084,13 +37084,13 @@
         <v>392.022213298565</v>
       </c>
       <c r="P32" t="n">
-        <v>302.0996066079405</v>
+        <v>347.5214079408258</v>
       </c>
       <c r="Q32" t="n">
-        <v>287.6221651818021</v>
+        <v>287.6221651818018</v>
       </c>
       <c r="R32" t="n">
-        <v>80.00036563482755</v>
+        <v>80.00036563482726</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>86.04559956470369</v>
       </c>
       <c r="K33" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L33" t="n">
         <v>427.3915692402504</v>
@@ -37221,25 +37221,25 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.397978348702297</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>198.3448866047528</v>
+        <v>59.90606218832852</v>
       </c>
       <c r="L34" t="n">
         <v>134.846294871806</v>
       </c>
       <c r="M34" t="n">
-        <v>154.2143364031614</v>
+        <v>208.914667946525</v>
       </c>
       <c r="N34" t="n">
-        <v>205.6569372828677</v>
+        <v>292.2534173427359</v>
       </c>
       <c r="O34" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P34" t="n">
         <v>90.63146781831242</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4600088381011247</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>86.04559956470369</v>
       </c>
       <c r="K36" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L36" t="n">
         <v>427.3915692402504</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832852</v>
       </c>
       <c r="L37" t="n">
         <v>134.846294871806</v>
@@ -37476,7 +37476,7 @@
         <v>153.8145929263119</v>
       </c>
       <c r="O37" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P37" t="n">
         <v>90.63146781831242</v>
@@ -37622,7 +37622,7 @@
         <v>86.04559956470369</v>
       </c>
       <c r="K39" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L39" t="n">
         <v>427.3915692402504</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832852</v>
       </c>
       <c r="L40" t="n">
         <v>134.846294871806</v>
@@ -37713,7 +37713,7 @@
         <v>153.8145929263119</v>
       </c>
       <c r="O40" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P40" t="n">
         <v>90.63146781831242</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.04559956470369</v>
       </c>
       <c r="K42" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L42" t="n">
         <v>427.3915692402504</v>
@@ -37868,7 +37868,7 @@
         <v>557.4695549680289</v>
       </c>
       <c r="N42" t="n">
-        <v>433.4364502242374</v>
+        <v>154.0011055248959</v>
       </c>
       <c r="O42" t="n">
         <v>459.5798257422468</v>
@@ -37877,7 +37877,7 @@
         <v>356.0461373433986</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>193.3897451346382</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832852</v>
       </c>
       <c r="L43" t="n">
         <v>134.846294871806</v>
@@ -37950,7 +37950,7 @@
         <v>153.8145929263119</v>
       </c>
       <c r="O43" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P43" t="n">
         <v>90.63146781831242</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>86.04559956470369</v>
       </c>
       <c r="K45" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L45" t="n">
         <v>427.3915692402504</v>
@@ -38105,7 +38105,7 @@
         <v>557.4695549680289</v>
       </c>
       <c r="N45" t="n">
-        <v>433.4364502242374</v>
+        <v>154.0011055248959</v>
       </c>
       <c r="O45" t="n">
         <v>459.5798257422468</v>
@@ -38114,7 +38114,7 @@
         <v>356.0461373433986</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>193.3897451346382</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832852</v>
       </c>
       <c r="L46" t="n">
         <v>134.846294871806</v>
@@ -38187,7 +38187,7 @@
         <v>153.8145929263119</v>
       </c>
       <c r="O46" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P46" t="n">
         <v>90.63146781831242</v>
